--- a/legendre_out/DATA/p1/p1CrossPoints.xlsx
+++ b/legendre_out/DATA/p1/p1CrossPoints.xlsx
@@ -385,7 +385,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.99602</v>
       </c>
       <c r="B2" t="n">
         <v>1.003911302182094e-06</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.00097</v>
       </c>
       <c r="B3" t="n">
         <v>2.800369958600767e-06</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
         <v>4.222833341054923e-06</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.00697</v>
       </c>
       <c r="B5" t="n">
         <v>4.443427064624834e-06</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.00909</v>
       </c>
       <c r="B6" t="n">
         <v>4.632868725076932e-06</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.01003</v>
       </c>
       <c r="B7" t="n">
         <v>4.906521708325058e-06</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
         <v>4.488212246439369e-06</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.01911</v>
       </c>
       <c r="B9" t="n">
         <v>4.968249852521265e-06</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.01992</v>
       </c>
       <c r="B10" t="n">
         <v>3.696697635889545e-06</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.02504</v>
       </c>
       <c r="B11" t="n">
         <v>4.699351316718316e-06</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.02998</v>
       </c>
       <c r="B12" t="n">
         <v>3.688536907179176e-06</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.03514</v>
       </c>
       <c r="B13" t="n">
         <v>3.324080995577811e-06</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.26996</v>
       </c>
       <c r="B14" t="n">
         <v>6.648397401359277e-06</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.29005</v>
       </c>
       <c r="B15" t="n">
         <v>5.30203474492719e-06</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="B16" t="n">
         <v>5.429984847962041e-06</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.29319</v>
       </c>
       <c r="B17" t="n">
         <v>4.722723868724922e-06</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.2942</v>
       </c>
       <c r="B18" t="n">
         <v>4.845532868701418e-06</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.29515</v>
       </c>
       <c r="B19" t="n">
         <v>6.241724600402411e-06</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.29615</v>
       </c>
       <c r="B20" t="n">
         <v>5.136102612011141e-06</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
         <v>5.984743736077724e-06</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="B22" t="n">
         <v>1.139468928643491e-05</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="B23" t="n">
         <v>1.277872835955177e-05</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.30105</v>
       </c>
       <c r="B24" t="n">
         <v>1.700400580479619e-05</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.3031</v>
       </c>
       <c r="B25" t="n">
         <v>1.866350771365947e-05</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.30523</v>
       </c>
       <c r="B26" t="n">
         <v>1.642078524591032e-05</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
         <v>2.0031748659319e-05</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.3093</v>
       </c>
       <c r="B28" t="n">
         <v>1.833188143386869e-05</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.30996</v>
       </c>
       <c r="B29" t="n">
         <v>1.910598828106061e-05</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.31117</v>
       </c>
       <c r="B30" t="n">
         <v>1.877170094342035e-05</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.31311</v>
       </c>
       <c r="B31" t="n">
         <v>1.877403849037332e-05</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.31513</v>
       </c>
       <c r="B32" t="n">
         <v>1.779976037110028e-05</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.3172</v>
       </c>
       <c r="B33" t="n">
         <v>1.652233499204064e-05</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.31917</v>
       </c>
       <c r="B34" t="n">
         <v>1.975503332049129e-05</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
         <v>1.73290483579689e-05</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
         <v>1.683193934146222e-05</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.32521</v>
       </c>
       <c r="B37" t="n">
         <v>1.098583513297806e-05</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.32711</v>
       </c>
       <c r="B38" t="n">
         <v>1.123611569879694e-05</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.32908</v>
       </c>
       <c r="B39" t="n">
         <v>9.271737689297937e-06</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.33012</v>
       </c>
       <c r="B40" t="n">
         <v>1.134572071504679e-05</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.33119</v>
       </c>
       <c r="B41" t="n">
         <v>1.710263308225266e-05</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.33324</v>
       </c>
       <c r="B42" t="n">
         <v>1.750590889163406e-05</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.33515</v>
       </c>
       <c r="B43" t="n">
         <v>1.636208902411694e-05</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.34004</v>
       </c>
       <c r="B44" t="n">
         <v>1.478899019514639e-05</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.34488</v>
       </c>
       <c r="B45" t="n">
         <v>1.561740343122481e-05</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.34998</v>
       </c>
       <c r="B46" t="n">
         <v>1.516175084933548e-05</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.37005</v>
       </c>
       <c r="B47" t="n">
         <v>1.019531776715427e-05</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.39015</v>
       </c>
       <c r="B48" t="n">
         <v>1.356629258026172e-05</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.41003</v>
       </c>
       <c r="B49" t="n">
         <v>2.044429235985378e-05</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.42024</v>
       </c>
       <c r="B50" t="n">
         <v>2.963706162891428e-05</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.43018</v>
       </c>
       <c r="B51" t="n">
         <v>4.075871733760341e-05</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.44004</v>
       </c>
       <c r="B52" t="n">
         <v>8.598387592427764e-05</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.44994</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001458136699369737</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.45499</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004004202966473285</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.46012</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006483919947153341</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007147581219881063</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005766112586068361</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.48613</v>
       </c>
       <c r="B58" t="n">
         <v>0.0002992652947220026</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.48819</v>
       </c>
       <c r="B59" t="n">
         <v>0.0002292299922823062</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002906100887307447</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.49222</v>
       </c>
       <c r="B61" t="n">
         <v>0.0001283819086729053</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.49499</v>
       </c>
       <c r="B62" t="n">
         <v>9.289642636719077e-05</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="B63" t="n">
         <v>5.374788160494251e-05</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.51021</v>
       </c>
       <c r="B64" t="n">
         <v>2.823920079154378e-05</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.51218</v>
       </c>
       <c r="B65" t="n">
         <v>2.167252186750793e-05</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.51508</v>
       </c>
       <c r="B66" t="n">
         <v>2.188680757823856e-05</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.52007</v>
       </c>
       <c r="B67" t="n">
         <v>2.620035401489747e-05</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.52524</v>
       </c>
       <c r="B68" t="n">
         <v>3.344122277121999e-05</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="B69" t="n">
         <v>3.234275566213716e-05</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.53506</v>
       </c>
       <c r="B70" t="n">
         <v>6.911220240277263e-05</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.54024</v>
       </c>
       <c r="B71" t="n">
         <v>0.0001053149775730746</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.5498</v>
       </c>
       <c r="B72" t="n">
         <v>0.0002559412446372343</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.56018</v>
       </c>
       <c r="B73" t="n">
         <v>0.00064708924827766</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="B74" t="n">
         <v>0.0006387892865982628</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="B75" t="n">
         <v>0.000348337397163955</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.59008</v>
       </c>
       <c r="B76" t="n">
         <v>0.0001821895223073151</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.60027</v>
       </c>
       <c r="B77" t="n">
         <v>9.162288040498924e-05</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.60999</v>
       </c>
       <c r="B78" t="n">
         <v>9.488424176313315e-05</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.62023</v>
       </c>
       <c r="B79" t="n">
         <v>6.68405947524277e-05</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.62994</v>
       </c>
       <c r="B80" t="n">
         <v>5.943658622827903e-05</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.63517</v>
       </c>
       <c r="B81" t="n">
         <v>3.822632645391872e-05</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
         <v>4.347846010805113e-05</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.64996</v>
       </c>
       <c r="B83" t="n">
         <v>9.333485546735955e-05</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.67012</v>
       </c>
       <c r="B84" t="n">
         <v>6.305579840389958e-05</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.68015</v>
       </c>
       <c r="B85" t="n">
         <v>2.822038819035869e-05</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.68993</v>
       </c>
       <c r="B86" t="n">
         <v>2.437189392206575e-05</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
         <v>2.232557054880997e-05</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.73</v>
       </c>
       <c r="B88" t="n">
         <v>2.864407127555294e-05</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.75</v>
       </c>
       <c r="B89" t="n">
         <v>5.179120576622905e-05</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.75518</v>
       </c>
       <c r="B90" t="n">
         <v>0.0001200743724731021</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.75888</v>
       </c>
       <c r="B91" t="n">
         <v>0.0001350022072627554</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.77004</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001576588006929124</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.77502</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001635376255191664</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="B94" t="n">
         <v>0.0001458598430857729</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.79012</v>
       </c>
       <c r="B95" t="n">
         <v>0.0001279287985448936</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="B96" t="n">
         <v>9.621538420290095e-05</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.81003</v>
       </c>
       <c r="B97" t="n">
         <v>8.791764924378772e-05</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
         <v>8.270425588248438e-05</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
         <v>8.347065135287189e-05</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.82006</v>
       </c>
       <c r="B100" t="n">
         <v>8.116038279066642e-05</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.82989</v>
       </c>
       <c r="B101" t="n">
         <v>8.186415338145527e-05</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
         <v>9.572514903772861e-05</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.86629</v>
       </c>
       <c r="B103" t="n">
         <v>0.0001283202703444668</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.88989</v>
       </c>
       <c r="B104" t="n">
         <v>0.0002104222491540148</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.89991</v>
       </c>
       <c r="B105" t="n">
         <v>0.0003220486683357956</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
         <v>0.0004254010167138297</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.91996</v>
       </c>
       <c r="B107" t="n">
         <v>0.0005666451978522166</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.92615</v>
       </c>
       <c r="B108" t="n">
         <v>0.0007058018680730735</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="B109" t="n">
         <v>0.0007632444899812367</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.93692</v>
       </c>
       <c r="B110" t="n">
         <v>0.0009493180187277939</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.94675</v>
       </c>
       <c r="B111" t="n">
         <v>0.00116664734932758</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.95027</v>
       </c>
       <c r="B112" t="n">
         <v>0.001179365448335933</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.95676</v>
       </c>
       <c r="B113" t="n">
         <v>0.001323736719372463</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="B114" t="n">
         <v>0.001353048945555235</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.96475</v>
       </c>
       <c r="B115" t="n">
         <v>0.001343632386193721</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.96787</v>
       </c>
       <c r="B116" t="n">
         <v>0.00132125263787467</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.97004</v>
       </c>
       <c r="B117" t="n">
         <v>0.001324503908421497</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
         <v>0.00125782267225719</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.97463</v>
       </c>
       <c r="B119" t="n">
         <v>0.001225281906263601</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.98471</v>
       </c>
       <c r="B120" t="n">
         <v>0.001008339295102033</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="B121" t="n">
         <v>0.0009354744297227361</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="B122" t="n">
         <v>0.0007866759866496458</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.00464</v>
       </c>
       <c r="B123" t="n">
         <v>0.0006120569535297865</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
         <v>0.0005593383933698716</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.01484</v>
       </c>
       <c r="B125" t="n">
         <v>0.0004809554225394651</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.01774</v>
       </c>
       <c r="B126" t="n">
         <v>0.0004580511732173382</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.01786</v>
       </c>
       <c r="B127" t="n">
         <v>0.0004592097130561311</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="B128" t="n">
         <v>0.0004545111473396111</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.0248</v>
       </c>
       <c r="B129" t="n">
         <v>0.0004413905903409231</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="B130" t="n">
         <v>0.0004446780639924145</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.0301</v>
       </c>
       <c r="B131" t="n">
         <v>0.0004497149283296686</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="B132" t="n">
         <v>0.0005026778059218666</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.0359</v>
       </c>
       <c r="B133" t="n">
         <v>0.0005481529164959392</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.03871</v>
       </c>
       <c r="B134" t="n">
         <v>0.0005765052581455648</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="B135" t="n">
         <v>0.0005815453425130225</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.04479</v>
       </c>
       <c r="B136" t="n">
         <v>0.0005704039690835095</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.04997</v>
       </c>
       <c r="B137" t="n">
         <v>0.0005421480398599475</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.05484</v>
       </c>
       <c r="B138" t="n">
         <v>0.0004652909072460537</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.06488</v>
       </c>
       <c r="B139" t="n">
         <v>0.0002914519151903295</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.06991</v>
       </c>
       <c r="B140" t="n">
         <v>0.0002458982137642296</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.07448</v>
       </c>
       <c r="B141" t="n">
         <v>0.000196526042366269</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.08419</v>
       </c>
       <c r="B142" t="n">
         <v>0.0001518874629243444</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.08999</v>
       </c>
       <c r="B143" t="n">
         <v>0.0001429236585382152</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="B144" t="n">
         <v>0.0001406361268284369</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
         <v>0.0001435784801030762</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.09889</v>
       </c>
       <c r="B146" t="n">
         <v>0.0001366878406123011</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.09999</v>
       </c>
       <c r="B147" t="n">
         <v>0.0001359435454987607</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.10043</v>
       </c>
       <c r="B148" t="n">
         <v>0.0001366123718327163</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="B149" t="n">
         <v>0.0001361220669321244</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.10288</v>
       </c>
       <c r="B150" t="n">
         <v>0.0001341115842147438</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.10486</v>
       </c>
       <c r="B151" t="n">
         <v>0.0001316948281702436</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.1069</v>
       </c>
       <c r="B152" t="n">
         <v>0.0001318898045597999</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.10878</v>
       </c>
       <c r="B153" t="n">
         <v>0.0001183849360322415</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="B154" t="n">
         <v>0.0001204346355127321</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
         <v>0.0001211699482547004</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.11384</v>
       </c>
       <c r="B156" t="n">
         <v>0.0001208193038828718</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.1188</v>
       </c>
       <c r="B157" t="n">
         <v>0.0001066696036486944</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="B158" t="n">
         <v>9.271403551196339e-05</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.12852</v>
       </c>
       <c r="B159" t="n">
         <v>8.816842111172245e-05</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.12994</v>
       </c>
       <c r="B160" t="n">
         <v>8.599710710864717e-05</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.13381</v>
       </c>
       <c r="B161" t="n">
         <v>0.0001065970059101856</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.13888</v>
       </c>
       <c r="B162" t="n">
         <v>0.0001849546508203854</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.14165</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002273727176250479</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="B164" t="n">
         <v>0.000241850347195317</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.14799</v>
       </c>
       <c r="B165" t="n">
         <v>0.0002472864292717167</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.15001</v>
       </c>
       <c r="B166" t="n">
         <v>0.0002519289788509245</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="B167" t="n">
         <v>0.0002537184996205051</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
         <v>0.0002454570459951823</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.15937</v>
       </c>
       <c r="B169" t="n">
         <v>0.0002252661632429881</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.17005</v>
       </c>
       <c r="B170" t="n">
         <v>0.0001415680531670075</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.18984</v>
       </c>
       <c r="B171" t="n">
         <v>9.233420437968237e-05</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="B172" t="n">
         <v>8.419718988585551e-05</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.23003</v>
       </c>
       <c r="B173" t="n">
         <v>9.745026840402588e-05</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.2395</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001369266488330788</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.24306</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001529703243506324</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.25013</v>
       </c>
       <c r="B176" t="n">
         <v>0.0002325417422859975</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
         <v>0.0003099691982310474</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003230032053109591</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.26998</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003111060546336464</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
         <v>0.0002811354379809007</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.27502</v>
       </c>
       <c r="B181" t="n">
         <v>0.0002784075371153608</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279809999999999</v>
       </c>
       <c r="B182" t="n">
         <v>0.0002496076177388872</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.28495</v>
       </c>
       <c r="B183" t="n">
         <v>0.0002127388886521917</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.29016</v>
       </c>
       <c r="B184" t="n">
         <v>0.0001949570547108702</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.29294</v>
       </c>
       <c r="B185" t="n">
         <v>0.0001918415410961279</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.29767</v>
       </c>
       <c r="B186" t="n">
         <v>0.0001902101695717868</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.29972</v>
       </c>
       <c r="B187" t="n">
         <v>0.0001882995976859306</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.30238</v>
       </c>
       <c r="B188" t="n">
         <v>0.0001767845168106176</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.30823</v>
       </c>
       <c r="B189" t="n">
         <v>0.0001988761842748653</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312880000000001</v>
       </c>
       <c r="B190" t="n">
         <v>0.0002296897737491856</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.31752</v>
       </c>
       <c r="B191" t="n">
         <v>0.0002609951062288512</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.32281</v>
       </c>
       <c r="B192" t="n">
         <v>0.0002962219134575351</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.32768</v>
       </c>
       <c r="B193" t="n">
         <v>0.0003439231828168512</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
         <v>0.0003890598420051698</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.33291</v>
       </c>
       <c r="B195" t="n">
         <v>0.0003709883750739037</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.33747</v>
       </c>
       <c r="B196" t="n">
         <v>0.0003749157563009049</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.34274</v>
       </c>
       <c r="B197" t="n">
         <v>0.0003374848580031055</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.34293</v>
       </c>
       <c r="B198" t="n">
         <v>0.0003315565408277864</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.34694</v>
       </c>
       <c r="B199" t="n">
         <v>0.0002945697218428833</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.34826</v>
       </c>
       <c r="B200" t="n">
         <v>0.0002825518522778923</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.34858</v>
       </c>
       <c r="B201" t="n">
         <v>0.0002753785995543116</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.35205</v>
       </c>
       <c r="B202" t="n">
         <v>0.0003511987163355977</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.3536</v>
       </c>
       <c r="B203" t="n">
         <v>0.0003072041915850527</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.3579</v>
       </c>
       <c r="B204" t="n">
         <v>0.0003256632248796593</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359830000000001</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002955128106657019</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.36189</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002774616925699016</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.36386</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002636577314520728</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.36605</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002482000117187046</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368040000000001</v>
       </c>
       <c r="B209" t="n">
         <v>0.000229638772543721</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.36965</v>
       </c>
       <c r="B210" t="n">
         <v>0.000232783065995398</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.3748</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001199122663674994</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.38009</v>
       </c>
       <c r="B212" t="n">
         <v>4.969835278029997e-05</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382919999999999</v>
       </c>
       <c r="B213" t="n">
         <v>3.083400906506781e-05</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.38334</v>
       </c>
       <c r="B214" t="n">
         <v>4.352151316491228e-05</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383859999999999</v>
       </c>
       <c r="B215" t="n">
         <v>2.707097121328581e-05</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.38596</v>
       </c>
       <c r="B216" t="n">
         <v>2.202146782133933e-05</v>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.38986</v>
       </c>
       <c r="B217" t="n">
         <v>1.886652949228223e-05</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.39308</v>
       </c>
       <c r="B218" t="n">
         <v>1.949256770175509e-05</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.40341</v>
       </c>
       <c r="B219" t="n">
         <v>2.737386301300021e-05</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.41408</v>
       </c>
       <c r="B220" t="n">
         <v>5.134748437428754e-05</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.42436</v>
       </c>
       <c r="B221" t="n">
         <v>5.749407947633022e-05</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.43541</v>
       </c>
       <c r="B222" t="n">
         <v>5.053571319550639e-05</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.43926</v>
       </c>
       <c r="B223" t="n">
         <v>4.51255200109887e-05</v>

--- a/legendre_out/DATA/p1/p1CrossPoints.xlsx
+++ b/legendre_out/DATA/p1/p1CrossPoints.xlsx
@@ -385,7 +385,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.99602</v>
+        <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
         <v>1.003911302182094e-06</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.00097</v>
+        <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
         <v>2.800369958600767e-06</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
         <v>4.222833341054923e-06</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.00697</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
         <v>4.443427064624834e-06</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.00909</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
         <v>4.632868725076932e-06</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.01003</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
         <v>4.906521708325058e-06</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
         <v>4.488212246439369e-06</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.01911</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
         <v>4.968249852521265e-06</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.01992</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
         <v>3.696697635889545e-06</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.02504</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
         <v>4.699351316718316e-06</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.02998</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
         <v>3.688536907179176e-06</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.03514</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
         <v>3.324080995577811e-06</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.26996</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
         <v>6.648397401359277e-06</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.29005</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
         <v>5.30203474492719e-06</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291119999999999</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
         <v>5.429984847962041e-06</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.29319</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
         <v>4.722723868724922e-06</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.2942</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
         <v>4.845532868701418e-06</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.29515</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
         <v>6.241724600402411e-06</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.29615</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
         <v>5.136102612011141e-06</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
         <v>5.984743736077724e-06</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298080000000001</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
         <v>1.139468928643491e-05</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299090000000001</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
         <v>1.277872835955177e-05</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.30105</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
         <v>1.700400580479619e-05</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.3031</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
         <v>1.866350771365947e-05</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.30523</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
         <v>1.642078524591032e-05</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
         <v>2.0031748659319e-05</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.3093</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
         <v>1.833188143386869e-05</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.30996</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
         <v>1.910598828106061e-05</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.31117</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
         <v>1.877170094342035e-05</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.31311</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
         <v>1.877403849037332e-05</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.31513</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
         <v>1.779976037110028e-05</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.3172</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
         <v>1.652233499204064e-05</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.31917</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
         <v>1.975503332049129e-05</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
         <v>1.73290483579689e-05</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
         <v>1.683193934146222e-05</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.32521</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
         <v>1.098583513297806e-05</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.32711</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
         <v>1.123611569879694e-05</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.32908</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
         <v>9.271737689297937e-06</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.33012</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
         <v>1.134572071504679e-05</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.33119</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
         <v>1.710263308225266e-05</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.33324</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
         <v>1.750590889163406e-05</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.33515</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
         <v>1.636208902411694e-05</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.34004</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
         <v>1.478899019514639e-05</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.34488</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
         <v>1.561740343122481e-05</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.34998</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
         <v>1.516175084933548e-05</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.37005</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
         <v>1.019531776715427e-05</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.39015</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
         <v>1.356629258026172e-05</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.41003</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
         <v>2.044429235985378e-05</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.42024</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
         <v>2.963706162891428e-05</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.43018</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
         <v>4.075871733760341e-05</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.44004</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
         <v>8.598387592427764e-05</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.44994</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
         <v>0.0001458136699369737</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.45499</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
         <v>0.0004004202966473285</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.46012</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
         <v>0.0006483919947153341</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469959999999999</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
         <v>0.0007147581219881063</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477980000000001</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
         <v>0.0005766112586068361</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.48613</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
         <v>0.0002992652947220026</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.48819</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
         <v>0.0002292299922823062</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490069999999999</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
         <v>0.0002906100887307447</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.49222</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
         <v>0.0001283819086729053</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.49499</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
         <v>9.289642636719077e-05</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499969999999999</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
         <v>5.374788160494251e-05</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.51021</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
         <v>2.823920079154378e-05</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.51218</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
         <v>2.167252186750793e-05</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.51508</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
         <v>2.188680757823856e-05</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.52007</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
         <v>2.620035401489747e-05</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.52524</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
         <v>3.344122277121999e-05</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529409999999999</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
         <v>3.234275566213716e-05</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.53506</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
         <v>6.911220240277263e-05</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.54024</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
         <v>0.0001053149775730746</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5498</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
         <v>0.0002559412446372343</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.56018</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
         <v>0.00064708924827766</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570130000000001</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
         <v>0.0006387892865982628</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580030000000001</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
         <v>0.000348337397163955</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.59008</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
         <v>0.0001821895223073151</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.60027</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
         <v>9.162288040498924e-05</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.60999</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
         <v>9.488424176313315e-05</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.62023</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
         <v>6.68405947524277e-05</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.62994</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
         <v>5.943658622827903e-05</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.63517</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
         <v>3.822632645391872e-05</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
         <v>4.347846010805113e-05</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.64996</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
         <v>9.333485546735955e-05</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.67012</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
         <v>6.305579840389958e-05</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.68015</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
         <v>2.822038819035869e-05</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.68993</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
         <v>2.437189392206575e-05</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
         <v>2.232557054880997e-05</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.73</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
         <v>2.864407127555294e-05</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.75</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
         <v>5.179120576622905e-05</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.75518</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
         <v>0.0001200743724731021</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.75888</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
         <v>0.0001350022072627554</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.77004</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
         <v>0.0001576588006929124</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.77502</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
         <v>0.0001635376255191664</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780180000000001</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
         <v>0.0001458598430857729</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.79012</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
         <v>0.0001279287985448936</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799919999999999</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
         <v>9.621538420290095e-05</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.81003</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
         <v>8.791764924378772e-05</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
         <v>8.270425588248438e-05</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
         <v>8.347065135287189e-05</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.82006</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
         <v>8.116038279066642e-05</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.82989</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
         <v>8.186415338145527e-05</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
         <v>9.572514903772861e-05</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.86629</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
         <v>0.0001283202703444668</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.88989</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
         <v>0.0002104222491540148</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.89991</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
         <v>0.0003220486683357956</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
         <v>0.0004254010167138297</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.91996</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
         <v>0.0005666451978522166</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.92615</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
         <v>0.0007058018680730735</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930190000000001</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
         <v>0.0007632444899812367</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.93692</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
         <v>0.0009493180187277939</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.94675</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
         <v>0.00116664734932758</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.95027</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
         <v>0.001179365448335933</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.95676</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
         <v>0.001323736719372463</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
         <v>0.001353048945555235</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.96475</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
         <v>0.001343632386193721</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.96787</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
         <v>0.00132125263787467</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.97004</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
         <v>0.001324503908421497</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
         <v>0.00125782267225719</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.97463</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
         <v>0.001225281906263601</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.98471</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
         <v>0.001008339295102033</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990069999999999</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
         <v>0.0009354744297227361</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669999999999</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
         <v>0.0007866759866496458</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.00464</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
         <v>0.0006120569535297865</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
         <v>0.0005593383933698716</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.01484</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
         <v>0.0004809554225394651</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.01774</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
         <v>0.0004580511732173382</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.01786</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
         <v>0.0004592097130561311</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019819999999999</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
         <v>0.0004545111473396111</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0248</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
         <v>0.0004413905903409231</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027830000000001</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
         <v>0.0004446780639924145</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0301</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
         <v>0.0004497149283296686</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032780000000001</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
         <v>0.0005026778059218666</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0359</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
         <v>0.0005481529164959392</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.03871</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
         <v>0.0005765052581455648</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041980000000001</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
         <v>0.0005815453425130225</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.04479</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
         <v>0.0005704039690835095</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.04997</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
         <v>0.0005421480398599475</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.05484</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
         <v>0.0004652909072460537</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.06488</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
         <v>0.0002914519151903295</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.06991</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
         <v>0.0002458982137642296</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.07448</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
         <v>0.000196526042366269</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.08419</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
         <v>0.0001518874629243444</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.08999</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
         <v>0.0001429236585382152</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093719999999999</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
         <v>0.0001406361268284369</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
         <v>0.0001435784801030762</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.09889</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
         <v>0.0001366878406123011</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.09999</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
         <v>0.0001359435454987607</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.10043</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
         <v>0.0001366123718327163</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100709999999999</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
         <v>0.0001361220669321244</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.10288</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
         <v>0.0001341115842147438</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.10486</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
         <v>0.0001316948281702436</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1069</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
         <v>0.0001318898045597999</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.10878</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
         <v>0.0001183849360322415</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110040000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
         <v>0.0001204346355127321</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
         <v>0.0001211699482547004</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.11384</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
         <v>0.0001208193038828718</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1188</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
         <v>0.0001066696036486944</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123769999999999</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
         <v>9.271403551196339e-05</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.12852</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
         <v>8.816842111172245e-05</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.12994</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
         <v>8.599710710864717e-05</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.13381</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
         <v>0.0001065970059101856</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.13888</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
         <v>0.0001849546508203854</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.14165</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
         <v>0.0002273727176250479</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144740000000001</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
         <v>0.000241850347195317</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.14799</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
         <v>0.0002472864292717167</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.15001</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
         <v>0.0002519289788509245</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150980000000001</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
         <v>0.0002537184996205051</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
         <v>0.0002454570459951823</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.15937</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
         <v>0.0002252661632429881</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.17005</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
         <v>0.0001415680531670075</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.18984</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
         <v>9.233420437968237e-05</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210030000000001</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
         <v>8.419718988585551e-05</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.23003</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
         <v>9.745026840402588e-05</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2395</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
         <v>0.0001369266488330788</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.24306</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
         <v>0.0001529703243506324</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.25013</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
         <v>0.0002325417422859975</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
         <v>0.0003099691982310474</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
         <v>0.0003230032053109591</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.26998</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
         <v>0.0003111060546336464</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
         <v>0.0002811354379809007</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.27502</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
         <v>0.0002784075371153608</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279809999999999</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
         <v>0.0002496076177388872</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.28495</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
         <v>0.0002127388886521917</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.29016</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
         <v>0.0001949570547108702</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.29294</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
         <v>0.0001918415410961279</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.29767</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
         <v>0.0001902101695717868</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.29972</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
         <v>0.0001882995976859306</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.30238</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
         <v>0.0001767845168106176</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.30823</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
         <v>0.0001988761842748653</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312880000000001</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
         <v>0.0002296897737491856</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.31752</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
         <v>0.0002609951062288512</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.32281</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
         <v>0.0002962219134575351</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.32768</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
         <v>0.0003439231828168512</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
         <v>0.0003890598420051698</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.33291</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
         <v>0.0003709883750739037</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.33747</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
         <v>0.0003749157563009049</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.34274</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
         <v>0.0003374848580031055</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.34293</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
         <v>0.0003315565408277864</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.34694</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
         <v>0.0002945697218428833</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.34826</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
         <v>0.0002825518522778923</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.34858</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
         <v>0.0002753785995543116</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.35205</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
         <v>0.0003511987163355977</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3536</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
         <v>0.0003072041915850527</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3579</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
         <v>0.0003256632248796593</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359830000000001</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
         <v>0.0002955128106657019</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.36189</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
         <v>0.0002774616925699016</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.36386</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
         <v>0.0002636577314520728</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.36605</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
         <v>0.0002482000117187046</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368040000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
         <v>0.000229638772543721</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.36965</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
         <v>0.000232783065995398</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3748</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
         <v>0.0001199122663674994</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.38009</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
         <v>4.969835278029997e-05</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382919999999999</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
         <v>3.083400906506781e-05</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.38334</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
         <v>4.352151316491228e-05</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383859999999999</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
         <v>2.707097121328581e-05</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.38596</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
         <v>2.202146782133933e-05</v>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.38986</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
         <v>1.886652949228223e-05</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.39308</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
         <v>1.949256770175509e-05</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.40341</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
         <v>2.737386301300021e-05</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.41408</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
         <v>5.134748437428754e-05</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.42436</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
         <v>5.749407947633022e-05</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>5.43541</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
         <v>5.053571319550639e-05</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>5.43926</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
         <v>4.51255200109887e-05</v>

--- a/legendre_out/DATA/p1/p1CrossPoints.xlsx
+++ b/legendre_out/DATA/p1/p1CrossPoints.xlsx
@@ -385,13 +385,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>1.003911302182094e-06</v>
+        <v>1571336867726.672</v>
       </c>
       <c r="C2" t="n">
-        <v>4.783558708851387e-08</v>
+        <v>67768835253.17342</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -401,13 +401,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>2.800369958600767e-06</v>
+        <v>2729634175168.234</v>
       </c>
       <c r="C3" t="n">
-        <v>1.137537186122309e-07</v>
+        <v>110709949507.4147</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -417,13 +417,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>4.222833341054923e-06</v>
+        <v>3837384292264.12</v>
       </c>
       <c r="C4" t="n">
-        <v>1.556927616845236e-07</v>
+        <v>138046824879.4162</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -433,13 +433,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>4.443427064624834e-06</v>
+        <v>3857425364289.776</v>
       </c>
       <c r="C5" t="n">
-        <v>1.656672130136983e-07</v>
+        <v>150626778255.5824</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -449,13 +449,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>4.632868725076932e-06</v>
+        <v>4759639974213.167</v>
       </c>
       <c r="C6" t="n">
-        <v>1.846404722100773e-07</v>
+        <v>182211884005.2705</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -465,13 +465,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>4.906521708325058e-06</v>
+        <v>4549485341081.854</v>
       </c>
       <c r="C7" t="n">
-        <v>1.962682584083572e-07</v>
+        <v>177679268121.5551</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -481,13 +481,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>4.488212246439369e-06</v>
+        <v>4428942647099.455</v>
       </c>
       <c r="C8" t="n">
-        <v>1.689196002998154e-07</v>
+        <v>158749148197.2766</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -497,13 +497,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>4.968249852521265e-06</v>
+        <v>4857422306949.252</v>
       </c>
       <c r="C9" t="n">
-        <v>1.667214974611379e-07</v>
+        <v>159685469640.0798</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -513,13 +513,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>3.696697635889545e-06</v>
+        <v>3449379107866.597</v>
       </c>
       <c r="C10" t="n">
-        <v>1.560259249041811e-07</v>
+        <v>151056958000.0096</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -529,13 +529,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>4.699351316718316e-06</v>
+        <v>4398517165253.42</v>
       </c>
       <c r="C11" t="n">
-        <v>1.836336479358745e-07</v>
+        <v>170919153546.3674</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -545,13 +545,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>3.688536907179176e-06</v>
+        <v>4934599189224.398</v>
       </c>
       <c r="C12" t="n">
-        <v>1.512340765088285e-07</v>
+        <v>177577466040.9821</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>3.324080995577811e-06</v>
+        <v>3193131069100.701</v>
       </c>
       <c r="C13" t="n">
-        <v>1.315087023854919e-07</v>
+        <v>123663121570.6031</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>6.648397401359277e-06</v>
+        <v>6114194108858.29</v>
       </c>
       <c r="C14" t="n">
-        <v>1.978209316824941e-07</v>
+        <v>176818528105.8825</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>5.30203474492719e-06</v>
+        <v>4828155910018.219</v>
       </c>
       <c r="C15" t="n">
-        <v>1.728871096755255e-07</v>
+        <v>151255294715.0665</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -609,13 +609,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>5.429984847962041e-06</v>
+        <v>5213577320230.807</v>
       </c>
       <c r="C16" t="n">
-        <v>1.955165881123172e-07</v>
+        <v>180897750884.0327</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -625,13 +625,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>4.722723868724922e-06</v>
+        <v>4426949633895.619</v>
       </c>
       <c r="C17" t="n">
-        <v>1.743312291403101e-07</v>
+        <v>158014560808.1466</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>4.845532868701418e-06</v>
+        <v>4588130871754.898</v>
       </c>
       <c r="C18" t="n">
-        <v>1.880707939859976e-07</v>
+        <v>171237157036.1058</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>6.241724600402411e-06</v>
+        <v>5818736883958.282</v>
       </c>
       <c r="C19" t="n">
-        <v>2.322857561045487e-07</v>
+        <v>209342296860.8065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -673,13 +673,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>5.136102612011141e-06</v>
+        <v>4813669972889.714</v>
       </c>
       <c r="C20" t="n">
-        <v>2.110379790602829e-07</v>
+        <v>197771876215.1041</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -689,13 +689,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>5.984743736077724e-06</v>
+        <v>5747562762555.971</v>
       </c>
       <c r="C21" t="n">
-        <v>2.54744196405606e-07</v>
+        <v>234929389892.7808</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -705,13 +705,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>1.139468928643491e-05</v>
+        <v>10357075473010.08</v>
       </c>
       <c r="C22" t="n">
-        <v>5.723393064942188e-07</v>
+        <v>503994667114.5529</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>1.277872835955177e-05</v>
+        <v>12096802356928.37</v>
       </c>
       <c r="C23" t="n">
-        <v>7.341346705108242e-07</v>
+        <v>659873176801.6852</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1.700400580479619e-05</v>
+        <v>16933634184566.98</v>
       </c>
       <c r="C24" t="n">
-        <v>9.52160807701463e-07</v>
+        <v>904857824771.6077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>1.866350771365947e-05</v>
+        <v>18004754960338.28</v>
       </c>
       <c r="C25" t="n">
-        <v>9.569736654634123e-07</v>
+        <v>887779379602.184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -769,13 +769,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>1.642078524591032e-05</v>
+        <v>17019375669857.17</v>
       </c>
       <c r="C26" t="n">
-        <v>9.060954741254594e-07</v>
+        <v>881349751477.4755</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>2.0031748659319e-05</v>
+        <v>18782528067469.89</v>
       </c>
       <c r="C27" t="n">
-        <v>1.051369587771867e-06</v>
+        <v>953379337840.7822</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -801,13 +801,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>1.833188143386869e-05</v>
+        <v>18417995882467.91</v>
       </c>
       <c r="C28" t="n">
-        <v>9.93613016676873e-07</v>
+        <v>941972211515.0514</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -817,13 +817,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>1.910598828106061e-05</v>
+        <v>18261527557644.16</v>
       </c>
       <c r="C29" t="n">
-        <v>9.872991075918741e-07</v>
+        <v>911810162346.8384</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>1.877170094342035e-05</v>
+        <v>17964057350041.97</v>
       </c>
       <c r="C30" t="n">
-        <v>9.65749125185574e-07</v>
+        <v>892576301680.0714</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -849,13 +849,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1.877403849037332e-05</v>
+        <v>18275078425588.53</v>
       </c>
       <c r="C31" t="n">
-        <v>9.932409807982571e-07</v>
+        <v>928877105243.4113</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -865,13 +865,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>1.779976037110028e-05</v>
+        <v>17168687649416.77</v>
       </c>
       <c r="C32" t="n">
-        <v>9.634992627202364e-07</v>
+        <v>883719537673.9889</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>1.652233499204064e-05</v>
+        <v>16235742101937.3</v>
       </c>
       <c r="C33" t="n">
-        <v>8.663708472265994e-07</v>
+        <v>806118027281.0399</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -897,13 +897,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>1.975503332049129e-05</v>
+        <v>18402113836883.46</v>
       </c>
       <c r="C34" t="n">
-        <v>1.031598728091938e-06</v>
+        <v>926808515480.5032</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -913,13 +913,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>1.73290483579689e-05</v>
+        <v>16409301222039.61</v>
       </c>
       <c r="C35" t="n">
-        <v>8.745764335103602e-07</v>
+        <v>804847993368.595</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -929,13 +929,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>1.683193934146222e-05</v>
+        <v>15732295295685.01</v>
       </c>
       <c r="C36" t="n">
-        <v>8.311042579453239e-07</v>
+        <v>745931671538.6443</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>1.098583513297806e-05</v>
+        <v>10631499726712.72</v>
       </c>
       <c r="C37" t="n">
-        <v>5.927335748631179e-07</v>
+        <v>551046636598.2047</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>1.123611569879694e-05</v>
+        <v>10583808813992.17</v>
       </c>
       <c r="C38" t="n">
-        <v>5.350550897843821e-07</v>
+        <v>483027075035.163</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -977,13 +977,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>9.271737689297937e-06</v>
+        <v>10016931513864.48</v>
       </c>
       <c r="C39" t="n">
-        <v>4.078759949275751e-07</v>
+        <v>415799121230.6144</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -993,13 +993,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>1.134572071504679e-05</v>
+        <v>10726229730159.97</v>
       </c>
       <c r="C40" t="n">
-        <v>5.458291555413424e-07</v>
+        <v>505756174867.4442</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>1.710263308225266e-05</v>
+        <v>16024049659868.04</v>
       </c>
       <c r="C41" t="n">
-        <v>5.847462101027822e-07</v>
+        <v>535123545584.6137</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>1.750590889163406e-05</v>
+        <v>16532608691018.99</v>
       </c>
       <c r="C42" t="n">
-        <v>5.294113816311622e-07</v>
+        <v>489604161534.3657</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>1.636208902411694e-05</v>
+        <v>15221228701817.49</v>
       </c>
       <c r="C43" t="n">
-        <v>4.744840121226472e-07</v>
+        <v>431669244208.5692</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>1.478899019514639e-05</v>
+        <v>13820526245956.34</v>
       </c>
       <c r="C44" t="n">
-        <v>4.198387599585925e-07</v>
+        <v>384889464070.3817</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1.561740343122481e-05</v>
+        <v>14511872137216.89</v>
       </c>
       <c r="C45" t="n">
-        <v>4.371393696650803e-07</v>
+        <v>398721373204.5166</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>1.516175084933548e-05</v>
+        <v>14178811055699.53</v>
       </c>
       <c r="C46" t="n">
-        <v>4.114024464504e-07</v>
+        <v>379504233110.2262</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>1.019531776715427e-05</v>
+        <v>9453973391144.586</v>
       </c>
       <c r="C47" t="n">
-        <v>3.006013855888984e-07</v>
+        <v>272100599815.9023</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1121,13 +1121,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>1.356629258026172e-05</v>
+        <v>12681178214627.64</v>
       </c>
       <c r="C48" t="n">
-        <v>3.848300151479521e-07</v>
+        <v>353209041564.6313</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>2.044429235985378e-05</v>
+        <v>19017298691532.8</v>
       </c>
       <c r="C49" t="n">
-        <v>5.578594372493102e-07</v>
+        <v>508759452573.0347</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>2.963706162891428e-05</v>
+        <v>27749459552604.12</v>
       </c>
       <c r="C50" t="n">
-        <v>7.913804868397059e-07</v>
+        <v>734513183682.704</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>4.075871733760341e-05</v>
+        <v>38096719717795.28</v>
       </c>
       <c r="C51" t="n">
-        <v>1.036590121062254e-06</v>
+        <v>961436645603.525</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>8.598387592427764e-05</v>
+        <v>80041540508718.19</v>
       </c>
       <c r="C52" t="n">
-        <v>2.240677942332022e-06</v>
+        <v>2057805056174.407</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001458136699369737</v>
+        <v>135743178846602.2</v>
       </c>
       <c r="C53" t="n">
-        <v>3.649287300757469e-06</v>
+        <v>3366271903729.368</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004004202966473285</v>
+        <v>373904927928730.6</v>
       </c>
       <c r="C54" t="n">
-        <v>9.996187924286117e-06</v>
+        <v>9250457262397.84</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1233,13 +1233,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006483919947153341</v>
+        <v>604903481549223.8</v>
       </c>
       <c r="C55" t="n">
-        <v>1.57047433827071e-05</v>
+        <v>14561091371256.86</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007147581219881063</v>
+        <v>665827577551948.6</v>
       </c>
       <c r="C56" t="n">
-        <v>1.693056360937979e-05</v>
+        <v>15689605734265.37</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005766112586068361</v>
+        <v>537431053517202.5</v>
       </c>
       <c r="C57" t="n">
-        <v>1.377422293639091e-05</v>
+        <v>12750330199767.02</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002992652947220026</v>
+        <v>279542116625987.7</v>
       </c>
       <c r="C58" t="n">
-        <v>7.163675861506472e-06</v>
+        <v>6661346545375.44</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0002292299922823062</v>
+        <v>214310107367121.5</v>
       </c>
       <c r="C59" t="n">
-        <v>5.498349521899253e-06</v>
+        <v>5119804266275.473</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002906100887307447</v>
+        <v>271164490263564.8</v>
       </c>
       <c r="C60" t="n">
-        <v>6.872802745911544e-06</v>
+        <v>6394357799577.401</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001283819086729053</v>
+        <v>119645517593044.4</v>
       </c>
       <c r="C61" t="n">
-        <v>3.08026517106216e-06</v>
+        <v>2849345840490.869</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>9.289642636719077e-05</v>
+        <v>86354542675547.92</v>
       </c>
       <c r="C62" t="n">
-        <v>2.186817330522822e-06</v>
+        <v>2018140545343.716</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>5.374788160494251e-05</v>
+        <v>49860838168691.91</v>
       </c>
       <c r="C63" t="n">
-        <v>1.305302813375298e-06</v>
+        <v>1197062103768.11</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>2.823920079154378e-05</v>
+        <v>26346140704629.23</v>
       </c>
       <c r="C64" t="n">
-        <v>7.084124544612687e-07</v>
+        <v>656632512482.6052</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>2.167252186750793e-05</v>
+        <v>20253740357907.72</v>
       </c>
       <c r="C65" t="n">
-        <v>6.844828244974497e-07</v>
+        <v>625963093234.3971</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>2.188680757823856e-05</v>
+        <v>20608120445286.85</v>
       </c>
       <c r="C66" t="n">
-        <v>9.396841727795293e-07</v>
+        <v>861075455806.6694</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>2.620035401489747e-05</v>
+        <v>24398764053897.62</v>
       </c>
       <c r="C67" t="n">
-        <v>1.19831632383071e-06</v>
+        <v>1075977615155.338</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>3.344122277121999e-05</v>
+        <v>31906765072450.94</v>
       </c>
       <c r="C68" t="n">
-        <v>1.749411638575037e-06</v>
+        <v>1611600358508.471</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>3.234275566213716e-05</v>
+        <v>30954841514780.76</v>
       </c>
       <c r="C69" t="n">
-        <v>1.514399844085007e-06</v>
+        <v>1406171028978.717</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1473,13 +1473,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>6.911220240277263e-05</v>
+        <v>63090216325283.71</v>
       </c>
       <c r="C70" t="n">
-        <v>3.15938251483729e-06</v>
+        <v>2761372853639.667</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0001053149775730746</v>
+        <v>99549593412823.94</v>
       </c>
       <c r="C71" t="n">
-        <v>4.571483455129748e-06</v>
+        <v>4182508350760.228</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0002559412446372343</v>
+        <v>238883960981391.7</v>
       </c>
       <c r="C72" t="n">
-        <v>6.681645823745863e-06</v>
+        <v>6164696041249.831</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>0.00064708924827766</v>
+        <v>603764530011919.4</v>
       </c>
       <c r="C73" t="n">
-        <v>1.651345698519055e-05</v>
+        <v>15245075238276.61</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0006387892865982628</v>
+        <v>596327790003703</v>
       </c>
       <c r="C74" t="n">
-        <v>1.635512237350928e-05</v>
+        <v>15147017340801.59</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>0.000348337397163955</v>
+        <v>324819276042810.3</v>
       </c>
       <c r="C75" t="n">
-        <v>9.895945164936488e-06</v>
+        <v>9083500372910.07</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0001821895223073151</v>
+        <v>170811279028423.4</v>
       </c>
       <c r="C76" t="n">
-        <v>5.12517643022432e-06</v>
+        <v>4743262756272.54</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>9.162288040498924e-05</v>
+        <v>85453945996042.42</v>
       </c>
       <c r="C77" t="n">
-        <v>3.060335483323767e-06</v>
+        <v>2776607898616.358</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>9.488424176313315e-05</v>
+        <v>88832742972246.97</v>
       </c>
       <c r="C78" t="n">
-        <v>3.616018659520721e-06</v>
+        <v>3320207517380.717</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>6.68405947524277e-05</v>
+        <v>63608754421101.34</v>
       </c>
       <c r="C79" t="n">
-        <v>3.325336914554065e-06</v>
+        <v>3061309931421.499</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>5.943658622827903e-05</v>
+        <v>55416819821450.09</v>
       </c>
       <c r="C80" t="n">
-        <v>2.54307004599318e-06</v>
+        <v>2307107404116.771</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1649,13 +1649,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>3.822632645391872e-05</v>
+        <v>35575368667847.18</v>
       </c>
       <c r="C81" t="n">
-        <v>1.702247362566023e-06</v>
+        <v>1526032453393.009</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>4.347846010805113e-05</v>
+        <v>40506414648522.48</v>
       </c>
       <c r="C82" t="n">
-        <v>1.601525870898284e-06</v>
+        <v>1450709444417.265</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>9.333485546735955e-05</v>
+        <v>86894653470136.86</v>
       </c>
       <c r="C83" t="n">
-        <v>2.646125995689087e-06</v>
+        <v>2422396001702.536</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>6.305579840389958e-05</v>
+        <v>58681395603990.17</v>
       </c>
       <c r="C84" t="n">
-        <v>1.696773810959555e-06</v>
+        <v>1555572030039.387</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>2.822038819035869e-05</v>
+        <v>26225334115848.29</v>
       </c>
       <c r="C85" t="n">
-        <v>8.245084578040502e-07</v>
+        <v>749645438224.1024</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>2.437189392206575e-05</v>
+        <v>22697658679499.67</v>
       </c>
       <c r="C86" t="n">
-        <v>7.013401470071529e-07</v>
+        <v>644614053975.2152</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>2.232557054880997e-05</v>
+        <v>20831688581787.15</v>
       </c>
       <c r="C87" t="n">
-        <v>5.825150996599339e-07</v>
+        <v>538381057429.6209</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>2.864407127555294e-05</v>
+        <v>26503935822899.32</v>
       </c>
       <c r="C88" t="n">
-        <v>7.594049159989366e-07</v>
+        <v>691127275505.0059</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>5.179120576622905e-05</v>
+        <v>48292452250040.33</v>
       </c>
       <c r="C89" t="n">
-        <v>1.306001607467325e-06</v>
+        <v>1206170918601.913</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001200743724731021</v>
+        <v>111779436747340.4</v>
       </c>
       <c r="C90" t="n">
-        <v>2.907293086394077e-06</v>
+        <v>2684699732987.143</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001350022072627554</v>
+        <v>125546432447833.3</v>
       </c>
       <c r="C91" t="n">
-        <v>3.250615806927412e-06</v>
+        <v>3000243728560.546</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1825,13 +1825,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001576588006929124</v>
+        <v>147254768413636</v>
       </c>
       <c r="C92" t="n">
-        <v>3.780110306164908e-06</v>
+        <v>3513553003405.362</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001635376255191664</v>
+        <v>152124472582384</v>
       </c>
       <c r="C93" t="n">
-        <v>4.067935996324168e-06</v>
+        <v>3744279604521.789</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001458598430857729</v>
+        <v>135395966455643.9</v>
       </c>
       <c r="C94" t="n">
-        <v>4.262527292678648e-06</v>
+        <v>3880359632125.208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001279287985448936</v>
+        <v>119366513526327.7</v>
       </c>
       <c r="C95" t="n">
-        <v>3.735613393881529e-06</v>
+        <v>3427635020137.147</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>9.621538420290095e-05</v>
+        <v>89606011643277.88</v>
       </c>
       <c r="C96" t="n">
-        <v>2.771978065545607e-06</v>
+        <v>2537003458631.179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>8.791764924378772e-05</v>
+        <v>82094082407673.45</v>
       </c>
       <c r="C97" t="n">
-        <v>2.443019658232354e-06</v>
+        <v>2249019536780.39</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>8.270425588248438e-05</v>
+        <v>77276746550636.08</v>
       </c>
       <c r="C98" t="n">
-        <v>2.109453008293671e-06</v>
+        <v>1950254746365.667</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>8.347065135287189e-05</v>
+        <v>77230792841968.95</v>
       </c>
       <c r="C99" t="n">
-        <v>2.027135351496373e-06</v>
+        <v>1854555401565.692</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>8.116038279066642e-05</v>
+        <v>75824780554104.08</v>
       </c>
       <c r="C100" t="n">
-        <v>1.885754330586899e-06</v>
+        <v>1755616783739.111</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>8.186415338145527e-05</v>
+        <v>76212698051107.31</v>
       </c>
       <c r="C101" t="n">
-        <v>1.842315544785584e-06</v>
+        <v>1710198300179.266</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>9.572514903772861e-05</v>
+        <v>89199506607078.59</v>
       </c>
       <c r="C102" t="n">
-        <v>2.116395033237747e-06</v>
+        <v>1973031078316.651</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001283202703444668</v>
+        <v>119765079236790.4</v>
       </c>
       <c r="C103" t="n">
-        <v>2.81602566577747e-06</v>
+        <v>2631392449590.524</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0002104222491540148</v>
+        <v>196109448025960.3</v>
       </c>
       <c r="C104" t="n">
-        <v>4.538234782585476e-06</v>
+        <v>4241060058622.932</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003220486683357956</v>
+        <v>299938205189175.5</v>
       </c>
       <c r="C105" t="n">
-        <v>7.032358157129405e-06</v>
+        <v>6552495884880.217</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004254010167138297</v>
+        <v>396564583731291.6</v>
       </c>
       <c r="C106" t="n">
-        <v>9.193861452879691e-06</v>
+        <v>8587910902079.266</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0005666451978522166</v>
+        <v>527555515725105.9</v>
       </c>
       <c r="C107" t="n">
-        <v>1.229521080157715e-05</v>
+        <v>11459670155823.24</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0007058018680730735</v>
+        <v>657844885890479.1</v>
       </c>
       <c r="C108" t="n">
-        <v>1.510785808988403e-05</v>
+        <v>14123894308029.25</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2097,13 +2097,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0007632444899812367</v>
+        <v>711146876943172</v>
       </c>
       <c r="C109" t="n">
-        <v>1.640545572217535e-05</v>
+        <v>15310865174436.01</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0009493180187277939</v>
+        <v>885643343029824.2</v>
       </c>
       <c r="C110" t="n">
-        <v>2.025773734732967e-05</v>
+        <v>18971551811384.94</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>0.00116664734932758</v>
+        <v>1087209148105689</v>
       </c>
       <c r="C111" t="n">
-        <v>2.492432613821252e-05</v>
+        <v>23299586088942.92</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001179365448335933</v>
+        <v>1098979303630393</v>
       </c>
       <c r="C112" t="n">
-        <v>2.526783017109706e-05</v>
+        <v>23616425110298.35</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001323736719372463</v>
+        <v>1232723142263198</v>
       </c>
       <c r="C113" t="n">
-        <v>2.832863777259379e-05</v>
+        <v>26459978944660.82</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001353048945555235</v>
+        <v>1260358494386712</v>
       </c>
       <c r="C114" t="n">
-        <v>2.892491578799672e-05</v>
+        <v>27019526730401.15</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001343632386193721</v>
+        <v>1251903881089818</v>
       </c>
       <c r="C115" t="n">
-        <v>2.874933065737984e-05</v>
+        <v>26881433031080.48</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2209,13 +2209,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>0.00132125263787467</v>
+        <v>1231477950962289</v>
       </c>
       <c r="C116" t="n">
-        <v>2.825278278442253e-05</v>
+        <v>26423088847491.1</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001324503908421497</v>
+        <v>1232424934386821</v>
       </c>
       <c r="C117" t="n">
-        <v>2.841081650296451e-05</v>
+        <v>26489603543546.3</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>0.00125782267225719</v>
+        <v>1171625750321631</v>
       </c>
       <c r="C118" t="n">
-        <v>2.68780692136999e-05</v>
+        <v>25111107692926.71</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2257,13 +2257,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001225281906263601</v>
+        <v>1141684733450313</v>
       </c>
       <c r="C119" t="n">
-        <v>2.62354466504159e-05</v>
+        <v>24513626293486.18</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001008339295102033</v>
+        <v>939322193780635</v>
       </c>
       <c r="C120" t="n">
-        <v>2.161533231516354e-05</v>
+        <v>20194306605930.86</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0009354744297227361</v>
+        <v>871142874589816.9</v>
       </c>
       <c r="C121" t="n">
-        <v>2.00914739787491e-05</v>
+        <v>18762417995122.17</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0007866759866496458</v>
+        <v>733741273274903.6</v>
       </c>
       <c r="C122" t="n">
-        <v>1.682414230989292e-05</v>
+        <v>15749858845203.01</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0006120569535297865</v>
+        <v>570169330945967.9</v>
       </c>
       <c r="C123" t="n">
-        <v>1.310458936012703e-05</v>
+        <v>12236610480218.19</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0005593383933698716</v>
+        <v>520960766850428.5</v>
       </c>
       <c r="C124" t="n">
-        <v>1.20968902682504e-05</v>
+        <v>11289955921520.43</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0004809554225394651</v>
+        <v>448692220540397.1</v>
       </c>
       <c r="C125" t="n">
-        <v>1.032936695166285e-05</v>
+        <v>9669270536604.275</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0004580511732173382</v>
+        <v>426836320020814</v>
       </c>
       <c r="C126" t="n">
-        <v>9.911642822959114e-06</v>
+        <v>9249707380345.838</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0004592097130561311</v>
+        <v>428220507490185.8</v>
       </c>
       <c r="C127" t="n">
-        <v>9.92111910773569e-06</v>
+        <v>9274055679623.66</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0004545111473396111</v>
+        <v>424475654734085.6</v>
       </c>
       <c r="C128" t="n">
-        <v>9.926124824908462e-06</v>
+        <v>9279342421068.648</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2417,13 +2417,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0004413905903409231</v>
+        <v>411413651206251.9</v>
       </c>
       <c r="C129" t="n">
-        <v>9.915210600602976e-06</v>
+        <v>9221139707796.865</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0004446780639924145</v>
+        <v>415053918225168.2</v>
       </c>
       <c r="C130" t="n">
-        <v>1.005670946384496e-05</v>
+        <v>9378084894854.867</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0004497149283296686</v>
+        <v>418688985208763.2</v>
       </c>
       <c r="C131" t="n">
-        <v>1.03355350703598e-05</v>
+        <v>9593448840658.232</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2465,13 +2465,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0005026778059218666</v>
+        <v>468459937498036.2</v>
       </c>
       <c r="C132" t="n">
-        <v>1.130973433685153e-05</v>
+        <v>10518371005606.3</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0005481529164959392</v>
+        <v>510380767108499.5</v>
       </c>
       <c r="C133" t="n">
-        <v>1.23062747845229e-05</v>
+        <v>11433301136298.31</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0005765052581455648</v>
+        <v>536749435557534.4</v>
       </c>
       <c r="C134" t="n">
-        <v>1.293257067969349e-05</v>
+        <v>12015822746480.91</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0005815453425130225</v>
+        <v>542498284214874.9</v>
       </c>
       <c r="C135" t="n">
-        <v>1.315014957304038e-05</v>
+        <v>12248506756572.19</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0005704039690835095</v>
+        <v>530949458876311.8</v>
       </c>
       <c r="C136" t="n">
-        <v>1.283112793863532e-05</v>
+        <v>11908148928441.6</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0005421480398599475</v>
+        <v>504873618491211.5</v>
       </c>
       <c r="C137" t="n">
-        <v>1.223729676398701e-05</v>
+        <v>11365180831175.19</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0004652909072460537</v>
+        <v>433800564146799.8</v>
       </c>
       <c r="C138" t="n">
-        <v>1.038594258950495e-05</v>
+        <v>9670678634296.561</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002914519151903295</v>
+        <v>271389631796271.2</v>
       </c>
       <c r="C139" t="n">
-        <v>6.517321047584545e-06</v>
+        <v>6056641029577.873</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2593,13 +2593,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002458982137642296</v>
+        <v>228430312559777.3</v>
       </c>
       <c r="C140" t="n">
-        <v>5.594289311332589e-06</v>
+        <v>5168434433672.025</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>0.000196526042366269</v>
+        <v>183374840152104.8</v>
       </c>
       <c r="C141" t="n">
-        <v>4.367131523878165e-06</v>
+        <v>4072815656587.061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2625,13 +2625,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001518874629243444</v>
+        <v>141757173784112</v>
       </c>
       <c r="C142" t="n">
-        <v>3.43692779534213e-06</v>
+        <v>3202630344705.854</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0001429236585382152</v>
+        <v>132918808792600.5</v>
       </c>
       <c r="C143" t="n">
-        <v>3.308823131941257e-06</v>
+        <v>3061293632118.089</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0001406361268284369</v>
+        <v>130328253916878.8</v>
       </c>
       <c r="C144" t="n">
-        <v>3.69318539691257e-06</v>
+        <v>3376011570125.793</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0001435784801030762</v>
+        <v>133644742707566.7</v>
       </c>
       <c r="C145" t="n">
-        <v>3.616081171887627e-06</v>
+        <v>3330897763136.532</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0001366878406123011</v>
+        <v>127373636838655.4</v>
       </c>
       <c r="C146" t="n">
-        <v>3.700134658141374e-06</v>
+        <v>3398159866583.526</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0001359435454987607</v>
+        <v>127316713753435.2</v>
       </c>
       <c r="C147" t="n">
-        <v>3.807380602916134e-06</v>
+        <v>3499979655514.659</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0001366123718327163</v>
+        <v>127507549881145.1</v>
       </c>
       <c r="C148" t="n">
-        <v>3.803640749832629e-06</v>
+        <v>3501370330349.827</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2737,13 +2737,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0001361220669321244</v>
+        <v>126954312743451.1</v>
       </c>
       <c r="C149" t="n">
-        <v>3.774975756038415e-06</v>
+        <v>3470801342751.087</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0001341115842147438</v>
+        <v>124862597343529.7</v>
       </c>
       <c r="C150" t="n">
-        <v>3.766131913653078e-06</v>
+        <v>3451765465031.524</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0001316948281702436</v>
+        <v>122139984537016.3</v>
       </c>
       <c r="C151" t="n">
-        <v>3.668575921541007e-06</v>
+        <v>3333068911382.635</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001318898045597999</v>
+        <v>122361628656508.2</v>
       </c>
       <c r="C152" t="n">
-        <v>3.738690678368867e-06</v>
+        <v>3404913109813.265</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2801,13 +2801,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001183849360322415</v>
+        <v>110806132361239.3</v>
       </c>
       <c r="C153" t="n">
-        <v>3.349296804335401e-06</v>
+        <v>3080482570743.457</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001204346355127321</v>
+        <v>112107031224999.4</v>
       </c>
       <c r="C154" t="n">
-        <v>3.487568393753201e-06</v>
+        <v>3181365593130.129</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001211699482547004</v>
+        <v>113194851398485.8</v>
       </c>
       <c r="C155" t="n">
-        <v>3.489222180422646e-06</v>
+        <v>3213517541825.264</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001208193038828718</v>
+        <v>112556380541212.8</v>
       </c>
       <c r="C156" t="n">
-        <v>3.397775284360294e-06</v>
+        <v>3118717549425.994</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001066696036486944</v>
+        <v>99476279872270.5</v>
       </c>
       <c r="C157" t="n">
-        <v>2.88711394620859e-06</v>
+        <v>2655093587081.149</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>9.271403551196339e-05</v>
+        <v>86944889756154.75</v>
       </c>
       <c r="C158" t="n">
-        <v>2.690982138437851e-06</v>
+        <v>2491020944256.428</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>8.816842111172245e-05</v>
+        <v>82045381759377.45</v>
       </c>
       <c r="C159" t="n">
-        <v>2.379035195834072e-06</v>
+        <v>2183164638854.515</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2913,13 +2913,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>8.599710710864717e-05</v>
+        <v>80027097296065</v>
       </c>
       <c r="C160" t="n">
-        <v>2.504552700620037e-06</v>
+        <v>2285227042590.741</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001065970059101856</v>
+        <v>99086246663049.8</v>
       </c>
       <c r="C161" t="n">
-        <v>2.757214043132886e-06</v>
+        <v>2533577694226.042</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -2945,13 +2945,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001849546508203854</v>
+        <v>173395793873688.9</v>
       </c>
       <c r="C162" t="n">
-        <v>4.506045783891458e-06</v>
+        <v>4205180414859.121</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -2961,13 +2961,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002273727176250479</v>
+        <v>211362863671946.8</v>
       </c>
       <c r="C163" t="n">
-        <v>5.350430745086286e-06</v>
+        <v>4941720047123.148</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.000241850347195317</v>
+        <v>225222960802008.2</v>
       </c>
       <c r="C164" t="n">
-        <v>5.646308047603407e-06</v>
+        <v>5231117469255.348</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002472864292717167</v>
+        <v>229818571430723.4</v>
       </c>
       <c r="C165" t="n">
-        <v>5.816842576263461e-06</v>
+        <v>5369899447506.471</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002519289788509245</v>
+        <v>234347637436355.2</v>
       </c>
       <c r="C166" t="n">
-        <v>6.038189820848181e-06</v>
+        <v>5570357330828.191</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002537184996205051</v>
+        <v>236373513395028.7</v>
       </c>
       <c r="C167" t="n">
-        <v>5.821068751694704e-06</v>
+        <v>5405623637490.465</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002454570459951823</v>
+        <v>228382072370480.1</v>
       </c>
       <c r="C168" t="n">
-        <v>5.601002104268472e-06</v>
+        <v>5190890524905.69</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002252661632429881</v>
+        <v>210203852669984.1</v>
       </c>
       <c r="C169" t="n">
-        <v>5.084582152049911e-06</v>
+        <v>4737240821851.121</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001415680531670075</v>
+        <v>131873890212215.8</v>
       </c>
       <c r="C170" t="n">
-        <v>3.389576263203296e-06</v>
+        <v>3137412117268.295</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>9.233420437968237e-05</v>
+        <v>85951257638370.34</v>
       </c>
       <c r="C171" t="n">
-        <v>2.154488710260362e-06</v>
+        <v>1995583615946.828</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>8.419718988585551e-05</v>
+        <v>78514365317925.02</v>
       </c>
       <c r="C172" t="n">
-        <v>2.022082528520615e-06</v>
+        <v>1873671540101.977</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>9.745026840402588e-05</v>
+        <v>90892494005842.98</v>
       </c>
       <c r="C173" t="n">
-        <v>2.49986129151777e-06</v>
+        <v>2304968928722.36</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3137,13 +3137,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001369266488330788</v>
+        <v>127892246234121.5</v>
       </c>
       <c r="C174" t="n">
-        <v>3.205151656689635e-06</v>
+        <v>2980837122889.24</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001529703243506324</v>
+        <v>142149045215544.8</v>
       </c>
       <c r="C175" t="n">
-        <v>3.867820541385215e-06</v>
+        <v>3547858392557.375</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002325417422859975</v>
+        <v>215955621701852.5</v>
       </c>
       <c r="C176" t="n">
-        <v>5.908742587858088e-06</v>
+        <v>5416389967760.852</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003099691982310474</v>
+        <v>290383098375577.6</v>
       </c>
       <c r="C177" t="n">
-        <v>7.575001921597853e-06</v>
+        <v>7057974529511.873</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003230032053109591</v>
+        <v>300620783380180.8</v>
       </c>
       <c r="C178" t="n">
-        <v>8.313469411457473e-06</v>
+        <v>7655118906739.721</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003111060546336464</v>
+        <v>289717047972777.5</v>
       </c>
       <c r="C179" t="n">
-        <v>8.094337469962261e-06</v>
+        <v>7442287589470.524</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0002811354379809007</v>
+        <v>261302234323448</v>
       </c>
       <c r="C180" t="n">
-        <v>7.544100777634696e-06</v>
+        <v>6908258564359.784</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3249,13 +3249,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0002784075371153608</v>
+        <v>259398449082585.2</v>
       </c>
       <c r="C181" t="n">
-        <v>6.798301441864984e-06</v>
+        <v>6271672028100.281</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0002496076177388872</v>
+        <v>232571746985873.6</v>
       </c>
       <c r="C182" t="n">
-        <v>7.236651146845969e-06</v>
+        <v>6644826742826.817</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3281,13 +3281,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0002127388886521917</v>
+        <v>198013625969831.8</v>
       </c>
       <c r="C183" t="n">
-        <v>6.773640174560957e-06</v>
+        <v>6149985946124.995</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3297,13 +3297,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0001949570547108702</v>
+        <v>182147857443775.2</v>
       </c>
       <c r="C184" t="n">
-        <v>5.618797335949491e-06</v>
+        <v>5186198464166.118</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3313,13 +3313,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0001918415410961279</v>
+        <v>180120154285623.5</v>
       </c>
       <c r="C185" t="n">
-        <v>5.635344461578799e-06</v>
+        <v>5193834967577.652</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3329,13 +3329,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0001902101695717868</v>
+        <v>177764060776985.5</v>
       </c>
       <c r="C186" t="n">
-        <v>5.036813301944953e-06</v>
+        <v>4651973705012.312</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0001882995976859306</v>
+        <v>175822243967181.5</v>
       </c>
       <c r="C187" t="n">
-        <v>5.208846734355941e-06</v>
+        <v>4785382313556.995</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3361,13 +3361,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0001767845168106176</v>
+        <v>165423923209201.8</v>
       </c>
       <c r="C188" t="n">
-        <v>5.021467728281479e-06</v>
+        <v>4631368749360.219</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0001988761842748653</v>
+        <v>185749379911228.4</v>
       </c>
       <c r="C189" t="n">
-        <v>4.959523926561286e-06</v>
+        <v>4599466249979.844</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3393,13 +3393,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002296897737491856</v>
+        <v>214597165764737.2</v>
       </c>
       <c r="C190" t="n">
-        <v>5.730455449189398e-06</v>
+        <v>5320608756637.086</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3409,13 +3409,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0002609951062288512</v>
+        <v>243336546587380.6</v>
       </c>
       <c r="C191" t="n">
-        <v>6.398938478962966e-06</v>
+        <v>5933197639960.43</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0002962219134575351</v>
+        <v>275446680792918.5</v>
       </c>
       <c r="C192" t="n">
-        <v>7.07180140451223e-06</v>
+        <v>6519796997958.752</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0003439231828168512</v>
+        <v>320118330033676.8</v>
       </c>
       <c r="C193" t="n">
-        <v>8.106098408907306e-06</v>
+        <v>7491536124511.082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003890598420051698</v>
+        <v>362718069907865.3</v>
       </c>
       <c r="C194" t="n">
-        <v>9.162679455997065e-06</v>
+        <v>8489792121711.501</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3473,13 +3473,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003709883750739037</v>
+        <v>345758952168914.1</v>
       </c>
       <c r="C195" t="n">
-        <v>8.531549369878616e-06</v>
+        <v>7929744440421.732</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003749157563009049</v>
+        <v>348448777094277.5</v>
       </c>
       <c r="C196" t="n">
-        <v>8.519571816877566e-06</v>
+        <v>7876500113396.267</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3505,13 +3505,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003374848580031055</v>
+        <v>314555715847780</v>
       </c>
       <c r="C197" t="n">
-        <v>7.687114638061279e-06</v>
+        <v>7137773959509.985</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3521,13 +3521,13 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003315565408277864</v>
+        <v>308958067016120.7</v>
       </c>
       <c r="C198" t="n">
-        <v>7.46139424752458e-06</v>
+        <v>6940302784533.623</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002945697218428833</v>
+        <v>274934230046648.1</v>
       </c>
       <c r="C199" t="n">
-        <v>6.650610947571693e-06</v>
+        <v>6194466623599.975</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3553,13 +3553,13 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002825518522778923</v>
+        <v>263626321995617.8</v>
       </c>
       <c r="C200" t="n">
-        <v>6.308343903105439e-06</v>
+        <v>5885420503320.469</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3569,13 +3569,13 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002753785995543116</v>
+        <v>256988809341625.8</v>
       </c>
       <c r="C201" t="n">
-        <v>6.142050649388578e-06</v>
+        <v>5729209322790.296</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3585,13 +3585,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003511987163355977</v>
+        <v>327293257020775.8</v>
       </c>
       <c r="C202" t="n">
-        <v>8.103523438175696e-06</v>
+        <v>7523501317200.297</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3601,13 +3601,13 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003072041915850527</v>
+        <v>286044489235906</v>
       </c>
       <c r="C203" t="n">
-        <v>6.776140435589064e-06</v>
+        <v>6305529904905.77</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003256632248796593</v>
+        <v>302613952081382.3</v>
       </c>
       <c r="C204" t="n">
-        <v>7.669238755149771e-06</v>
+        <v>7073901114172.108</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3633,13 +3633,13 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002955128106657019</v>
+        <v>275455680096312.4</v>
       </c>
       <c r="C205" t="n">
-        <v>6.965179118877571e-06</v>
+        <v>6457246529244.293</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002774616925699016</v>
+        <v>258663279800203.2</v>
       </c>
       <c r="C206" t="n">
-        <v>6.583462613560762e-06</v>
+        <v>6103398609020.76</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3665,13 +3665,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002636577314520728</v>
+        <v>245618655513463.5</v>
       </c>
       <c r="C207" t="n">
-        <v>6.28165006047511e-06</v>
+        <v>5812217269079.579</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3681,13 +3681,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002482000117187046</v>
+        <v>230711196282329.3</v>
       </c>
       <c r="C208" t="n">
-        <v>5.996512284915938e-06</v>
+        <v>5525051736136.76</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3697,13 +3697,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.000229638772543721</v>
+        <v>213864914024699.4</v>
       </c>
       <c r="C209" t="n">
-        <v>5.274759560531406e-06</v>
+        <v>4889844211661.061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.000232783065995398</v>
+        <v>217341743415957.3</v>
       </c>
       <c r="C210" t="n">
-        <v>5.543261266697815e-06</v>
+        <v>5153688532597.58</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3729,13 +3729,13 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0001199122663674994</v>
+        <v>112060923788373.7</v>
       </c>
       <c r="C211" t="n">
-        <v>2.78709009077414e-06</v>
+        <v>2595467275669.063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3745,13 +3745,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>4.969835278029997e-05</v>
+        <v>46250263364968.02</v>
       </c>
       <c r="C212" t="n">
-        <v>1.251913723394324e-06</v>
+        <v>1151530671574.797</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>3.083400906506781e-05</v>
+        <v>28693823398311.72</v>
       </c>
       <c r="C213" t="n">
-        <v>8.003870754657303e-07</v>
+        <v>735863826573.0381</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3777,13 +3777,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>4.352151316491228e-05</v>
+        <v>40550168839427.31</v>
       </c>
       <c r="C214" t="n">
-        <v>1.0522204227474e-06</v>
+        <v>973263881974.3331</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>2.707097121328581e-05</v>
+        <v>25212628168779.03</v>
       </c>
       <c r="C215" t="n">
-        <v>6.849733249669361e-07</v>
+        <v>631226643234.2577</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3809,13 +3809,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>2.202146782133933e-05</v>
+        <v>20472401959918.18</v>
       </c>
       <c r="C216" t="n">
-        <v>5.636590487583302e-07</v>
+        <v>517129114992.6357</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3825,13 +3825,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>1.886652949228223e-05</v>
+        <v>17419221054161.87</v>
       </c>
       <c r="C217" t="n">
-        <v>4.686690544387301e-07</v>
+        <v>425090065903.4384</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3841,13 +3841,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>1.949256770175509e-05</v>
+        <v>17782057933988.89</v>
       </c>
       <c r="C218" t="n">
-        <v>4.985130869698332e-07</v>
+        <v>442643550716.2861</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3857,13 +3857,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>2.737386301300021e-05</v>
+        <v>25559969896593.3</v>
       </c>
       <c r="C219" t="n">
-        <v>6.552313259866959e-07</v>
+        <v>608523838665.2429</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3873,13 +3873,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>5.134748437428754e-05</v>
+        <v>47750629409707.36</v>
       </c>
       <c r="C220" t="n">
-        <v>1.183062397843683e-06</v>
+        <v>1093556841416.982</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3889,13 +3889,13 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>5.749407947633022e-05</v>
+        <v>53488611396873.98</v>
       </c>
       <c r="C221" t="n">
-        <v>1.324554877071822e-06</v>
+        <v>1225894315693.098</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -3905,13 +3905,13 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>5.053571319550639e-05</v>
+        <v>47034576098261.28</v>
       </c>
       <c r="C222" t="n">
-        <v>1.146393750304085e-06</v>
+        <v>1062284749322.175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -3921,13 +3921,13 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>4.51255200109887e-05</v>
+        <v>41951663318838.21</v>
       </c>
       <c r="C223" t="n">
-        <v>1.051442730470158e-06</v>
+        <v>969518042978.1547</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>

--- a/legendre_out/DATA/p1/p1CrossPoints.xlsx
+++ b/legendre_out/DATA/p1/p1CrossPoints.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,13 +385,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>1571336867726.672</v>
+        <v>3.372494587124335e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>67768835253.17342</v>
+        <v>1.92754001769666e-07</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -401,13 +401,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>2729634175168.234</v>
+        <v>4.731923760986697e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>110709949507.4147</v>
+        <v>2.133956484545425e-07</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -417,13 +417,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>3837384292264.12</v>
+        <v>5.849064709830042e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>138046824879.4162</v>
+        <v>2.958666506456609e-07</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -433,13 +433,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>3857425364289.776</v>
+        <v>5.768119803905645e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>150626778255.5824</v>
+        <v>2.860565497162185e-07</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -449,13 +449,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>4759639974213.167</v>
+        <v>7.121872733167491e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>182211884005.2705</v>
+        <v>3.477774980709511e-07</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -465,13 +465,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>4549485341081.854</v>
+        <v>5.719029067566988e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>177679268121.5551</v>
+        <v>3.048991801674087e-07</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -481,13 +481,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>4428942647099.455</v>
+        <v>5.709746773728273e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>158749148197.2766</v>
+        <v>2.739383086695766e-07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -497,13 +497,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>4857422306949.252</v>
+        <v>7.281901616961e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>159685469640.0798</v>
+        <v>2.766919538089675e-07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -513,13 +513,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>3449379107866.597</v>
+        <v>5.578393692486292e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>151056958000.0096</v>
+        <v>3.001962570713191e-07</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -529,13 +529,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>4398517165253.42</v>
+        <v>5.702698367797394e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>170919153546.3674</v>
+        <v>2.966065258239993e-07</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -545,13 +545,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>4934599189224.398</v>
+        <v>6.247255733421057e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>177577466040.9821</v>
+        <v>2.579677612131593e-07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>3193131069100.701</v>
+        <v>4.530414526288905e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>123663121570.6031</v>
+        <v>2.244602777148425e-07</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>6114194108858.29</v>
+        <v>7.517504925974704e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>176818528105.8825</v>
+        <v>2.901214940516563e-07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>4828155910018.219</v>
+        <v>7.828124222148932e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>151255294715.0665</v>
+        <v>3.079653463719955e-07</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -609,13 +609,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>5213577320230.807</v>
+        <v>6.475559125296826e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>180897750884.0327</v>
+        <v>3.476660713117816e-07</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -625,13 +625,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>4426949633895.619</v>
+        <v>5.374351802266416e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>158014560808.1466</v>
+        <v>3.054553924678554e-07</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>4588130871754.898</v>
+        <v>5.881596851562583e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>171237157036.1058</v>
+        <v>3.456018310780421e-07</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>5818736883958.282</v>
+        <v>6.455347913377264e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>209342296860.8065</v>
+        <v>3.732274833180166e-07</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -673,13 +673,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>4813669972889.714</v>
+        <v>6.349917220158663e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>197771876215.1041</v>
+        <v>3.987925265128301e-07</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -689,13 +689,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>5747562762555.971</v>
+        <v>7.534501738315605e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>234929389892.7808</v>
+        <v>4.738014956194683e-07</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -705,13 +705,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>10357075473010.08</v>
+        <v>1.256176782887475e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>503994667114.5529</v>
+        <v>1.022570449828533e-06</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>12096802356928.37</v>
+        <v>1.44820912081275e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>659873176801.6852</v>
+        <v>1.373807074272411e-06</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>16933634184566.98</v>
+        <v>2.339439080704756e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>904857824771.6077</v>
+        <v>2.172858923982146e-06</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>18004754960338.28</v>
+        <v>2.163929063898535e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>887779379602.184</v>
+        <v>1.828682253869954e-06</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -769,13 +769,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>17019375669857.17</v>
+        <v>2.093593116605353e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>881349751477.4755</v>
+        <v>1.795458818665482e-06</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>18782528067469.89</v>
+        <v>2.275103783567754e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>953379337840.7822</v>
+        <v>1.86134762022302e-06</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -801,13 +801,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>18417995882467.91</v>
+        <v>2.168019976031599e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>941972211515.0514</v>
+        <v>1.895960953816057e-06</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -817,13 +817,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>18261527557644.16</v>
+        <v>2.285857319623462e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>911810162346.8384</v>
+        <v>1.945761561669309e-06</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>17964057350041.97</v>
+        <v>2.066014269766546e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>892576301680.0714</v>
+        <v>1.849309127484569e-06</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -849,13 +849,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>18275078425588.53</v>
+        <v>2.208789966646039e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>928877105243.4113</v>
+        <v>1.802882592560107e-06</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -865,13 +865,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>17168687649416.77</v>
+        <v>1.962252655758504e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>883719537673.9889</v>
+        <v>1.797183380038603e-06</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>16235742101937.3</v>
+        <v>2.153989994239612e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>806118027281.0399</v>
+        <v>1.769374467468302e-06</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -897,13 +897,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>18402113836883.46</v>
+        <v>2.167517876945007e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>926808515480.5032</v>
+        <v>1.86664146613645e-06</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -913,13 +913,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>16409301222039.61</v>
+        <v>2.021136534209546e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>804847993368.595</v>
+        <v>1.53957949460217e-06</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -929,13 +929,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>15732295295685.01</v>
+        <v>1.948020739489318e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>745931671538.6443</v>
+        <v>1.505258729810725e-06</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>10631499726712.72</v>
+        <v>1.511739640264471e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>551046636598.2047</v>
+        <v>1.125974544329025e-06</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>10583808813992.17</v>
+        <v>1.46860235144542e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>483027075035.163</v>
+        <v>1.07705758091687e-06</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -977,13 +977,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>10016931513864.48</v>
+        <v>1.356436783395522e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>415799121230.6144</v>
+        <v>8.030054883382562e-07</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -993,13 +993,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>10726229730159.97</v>
+        <v>1.262469091308399e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>505756174867.4442</v>
+        <v>9.490303920537941e-07</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>16024049659868.04</v>
+        <v>1.952673362931542e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>535123545584.6137</v>
+        <v>8.135075032040761e-07</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>16532608691018.99</v>
+        <v>1.920012161036046e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>489604161534.3657</v>
+        <v>7.145952143613307e-07</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>15221228701817.49</v>
+        <v>1.878359102845844e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>431669244208.5692</v>
+        <v>6.299907455647611e-07</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>13820526245956.34</v>
+        <v>1.733423286308215e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>384889464070.3817</v>
+        <v>5.677179321887165e-07</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>14511872137216.89</v>
+        <v>1.775453536190577e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>398721373204.5166</v>
+        <v>5.839660055790831e-07</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>14178811055699.53</v>
+        <v>1.67413562255172e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>379504233110.2262</v>
+        <v>5.258189573674214e-07</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>9453973391144.586</v>
+        <v>1.171256748512552e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>272100599815.9023</v>
+        <v>4.268756931125164e-07</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1121,13 +1121,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>12681178214627.64</v>
+        <v>1.507927856809864e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>353209041564.6313</v>
+        <v>5.056540450973533e-07</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>19017298691532.8</v>
+        <v>2.256682989128956e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>508759452573.0347</v>
+        <v>7.099574864173557e-07</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>27749459552604.12</v>
+        <v>3.318397724450397e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>734513183682.704</v>
+        <v>9.817773391778243e-07</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>38096719717795.28</v>
+        <v>4.556634633541144e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>961436645603.525</v>
+        <v>1.243981373856157e-06</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>80041540508718.19</v>
+        <v>9.348939441872714e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>2057805056174.407</v>
+        <v>2.616245922045395e-06</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>135743178846602.2</v>
+        <v>0.0001587823067375679</v>
       </c>
       <c r="C53" t="n">
-        <v>3366271903729.368</v>
+        <v>4.181995980071148e-06</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>373904927928730.6</v>
+        <v>0.0004286741497562416</v>
       </c>
       <c r="C54" t="n">
-        <v>9250457262397.84</v>
+        <v>1.107972219342135e-05</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1233,13 +1233,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>604903481549223.8</v>
+        <v>0.0006916419759080243</v>
       </c>
       <c r="C55" t="n">
-        <v>14561091371256.86</v>
+        <v>1.728893973025029e-05</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>665827577551948.6</v>
+        <v>0.0007666966255308392</v>
       </c>
       <c r="C56" t="n">
-        <v>15689605734265.37</v>
+        <v>1.864454772158979e-05</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>537431053517202.5</v>
+        <v>0.0006163228447607172</v>
       </c>
       <c r="C57" t="n">
-        <v>12750330199767.02</v>
+        <v>1.512878971122309e-05</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>279542116625987.7</v>
+        <v>0.000319316190606334</v>
       </c>
       <c r="C58" t="n">
-        <v>6661346545375.44</v>
+        <v>7.857102355755425e-06</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>214310107367121.5</v>
+        <v>0.0002467386442911436</v>
       </c>
       <c r="C59" t="n">
-        <v>5119804266275.473</v>
+        <v>6.105099408978051e-06</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>271164490263564.8</v>
+        <v>0.0003122709672196198</v>
       </c>
       <c r="C60" t="n">
-        <v>6394357799577.401</v>
+        <v>7.613292142339062e-06</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>119645517593044.4</v>
+        <v>0.0001397924971713014</v>
       </c>
       <c r="C61" t="n">
-        <v>2849345840490.869</v>
+        <v>3.459396714747738e-06</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>86354542675547.92</v>
+        <v>9.93027100314175e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>2018140545343.716</v>
+        <v>2.432258202463491e-06</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>49860838168691.91</v>
+        <v>5.82010418302845e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1197062103768.11</v>
+        <v>1.476235376364794e-06</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>26346140704629.23</v>
+        <v>3.180464618010786e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>656632512482.6052</v>
+        <v>8.699691077783454e-07</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>20253740357907.72</v>
+        <v>2.435174044814659e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>625963093234.3971</v>
+        <v>9.497137886867073e-07</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>20608120445286.85</v>
+        <v>2.431460521088759e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>861075455806.6694</v>
+        <v>1.430332616124123e-06</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>24398764053897.62</v>
+        <v>2.997896967625027e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>1075977615155.338</v>
+        <v>2.095838388650363e-06</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>31906765072450.94</v>
+        <v>3.773528884468832e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>1611600358508.471</v>
+        <v>3.147924060762386e-06</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>30954841514780.76</v>
+        <v>3.644496200351228e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>1406171028978.717</v>
+        <v>2.840737710598322e-06</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1473,13 +1473,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>63090216325283.71</v>
+        <v>7.539647528538617e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>2761372853639.667</v>
+        <v>5.592275771538716e-06</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>99549593412823.94</v>
+        <v>0.0001177593343461616</v>
       </c>
       <c r="C71" t="n">
-        <v>4182508350760.228</v>
+        <v>7.575790112530283e-06</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>238883960981391.7</v>
+        <v>0.0002747160445918518</v>
       </c>
       <c r="C72" t="n">
-        <v>6164696041249.831</v>
+        <v>8.281066750638463e-06</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>603764530011919.4</v>
+        <v>0.0007001741481618946</v>
       </c>
       <c r="C73" t="n">
-        <v>15245075238276.61</v>
+        <v>1.948925176332316e-05</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>596327790003703</v>
+        <v>0.0006944263148402825</v>
       </c>
       <c r="C74" t="n">
-        <v>15147017340801.59</v>
+        <v>1.945402581760293e-05</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>324819276042810.3</v>
+        <v>0.0003715870403199232</v>
       </c>
       <c r="C75" t="n">
-        <v>9083500372910.07</v>
+        <v>1.185000593402001e-05</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>170811279028423.4</v>
+        <v>0.0001978308078467037</v>
       </c>
       <c r="C76" t="n">
-        <v>4743262756272.54</v>
+        <v>6.350036202736959e-06</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>85453945996042.42</v>
+        <v>0.0001001128981236066</v>
       </c>
       <c r="C77" t="n">
-        <v>2776607898616.358</v>
+        <v>4.096105712170064e-06</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>88832742972246.97</v>
+        <v>0.0001024742453363567</v>
       </c>
       <c r="C78" t="n">
-        <v>3320207517380.717</v>
+        <v>5.771516645750734e-06</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>63608754421101.34</v>
+        <v>7.069920172003784e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>3061309931421.499</v>
+        <v>5.788489040276882e-06</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>55416819821450.09</v>
+        <v>6.613620547065268e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>2307107404116.771</v>
+        <v>4.49327159950087e-06</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1649,13 +1649,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>35575368667847.18</v>
+        <v>3.990004485368847e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>1526032453393.009</v>
+        <v>2.634641385971952e-06</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>40506414648522.48</v>
+        <v>4.817248212202192e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>1450709444417.265</v>
+        <v>2.492146369591656e-06</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>86894653470136.86</v>
+        <v>0.0001029058944213939</v>
       </c>
       <c r="C83" t="n">
-        <v>2422396001702.536</v>
+        <v>3.387500286305067e-06</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>58681395603990.17</v>
+        <v>6.92211208987635e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>1555572030039.387</v>
+        <v>2.131669403887471e-06</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>26225334115848.29</v>
+        <v>3.118583579000698e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>749645438224.1024</v>
+        <v>1.145764758034824e-06</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>22697658679499.67</v>
+        <v>2.803546676990907e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>644614053975.2152</v>
+        <v>9.769160427590261e-07</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>20831688581787.15</v>
+        <v>2.527403779439803e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>538381057429.6209</v>
+        <v>7.728936560890483e-07</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>26503935822899.32</v>
+        <v>3.104851824639464e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>691127275505.0059</v>
+        <v>9.373116289650624e-07</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>48292452250040.33</v>
+        <v>5.786134809246361e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1206170918601.913</v>
+        <v>1.633974549939168e-06</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>111779436747340.4</v>
+        <v>0.0001309688229649158</v>
       </c>
       <c r="C90" t="n">
-        <v>2684699732987.143</v>
+        <v>3.403521533583564e-06</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>125546432447833.3</v>
+        <v>0.0001474533110721191</v>
       </c>
       <c r="C91" t="n">
-        <v>3000243728560.546</v>
+        <v>3.748419490249509e-06</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1825,13 +1825,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>147254768413636</v>
+        <v>0.000172771130635399</v>
       </c>
       <c r="C92" t="n">
-        <v>3513553003405.362</v>
+        <v>4.39063949654031e-06</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>152124472582384</v>
+        <v>0.0001773091751178324</v>
       </c>
       <c r="C93" t="n">
-        <v>3744279604521.789</v>
+        <v>4.721332956267066e-06</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>135395966455643.9</v>
+        <v>0.0001567387060671592</v>
       </c>
       <c r="C94" t="n">
-        <v>3880359632125.208</v>
+        <v>5.215739491591895e-06</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>119366513526327.7</v>
+        <v>0.0001402701498385185</v>
       </c>
       <c r="C95" t="n">
-        <v>3427635020137.147</v>
+        <v>4.950978843353789e-06</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>89606011643277.88</v>
+        <v>0.0001061610794092345</v>
       </c>
       <c r="C96" t="n">
-        <v>2537003458631.179</v>
+        <v>3.804928212080815e-06</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>82094082407673.45</v>
+        <v>9.843323682109448e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>2249019536780.39</v>
+        <v>3.234431068325017e-06</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>77276746550636.08</v>
+        <v>9.168260145636775e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>1950254746365.667</v>
+        <v>2.632893238803237e-06</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>77230792841968.95</v>
+        <v>9.157786152488016e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1854555401565.692</v>
+        <v>2.370905979583782e-06</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>75824780554104.08</v>
+        <v>8.963935350478956e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>1755616783739.111</v>
+        <v>2.173155580356842e-06</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>76212698051107.31</v>
+        <v>8.986267012281008e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1710198300179.266</v>
+        <v>2.065819672862975e-06</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>89199506607078.59</v>
+        <v>0.0001050626448216784</v>
       </c>
       <c r="C102" t="n">
-        <v>1973031078316.651</v>
+        <v>2.365048058495191e-06</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>119765079236790.4</v>
+        <v>0.0001412486826377977</v>
       </c>
       <c r="C103" t="n">
-        <v>2631392449590.524</v>
+        <v>3.146458766927933e-06</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>196109448025960.3</v>
+        <v>0.0002297844507603867</v>
       </c>
       <c r="C104" t="n">
-        <v>4241060058622.932</v>
+        <v>4.993063394365268e-06</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>299938205189175.5</v>
+        <v>0.0003458760447076312</v>
       </c>
       <c r="C105" t="n">
-        <v>6552495884880.217</v>
+        <v>7.611644230014609e-06</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>396564583731291.6</v>
+        <v>0.0004587728259735025</v>
       </c>
       <c r="C106" t="n">
-        <v>8587910902079.266</v>
+        <v>9.982188592792013e-06</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>527555515725105.9</v>
+        <v>0.0006086104698159668</v>
       </c>
       <c r="C107" t="n">
-        <v>11459670155823.24</v>
+        <v>1.326919723433321e-05</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>657844885890479.1</v>
+        <v>0.000757324471975939</v>
       </c>
       <c r="C108" t="n">
-        <v>14123894308029.25</v>
+        <v>1.628743940652413e-05</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2097,13 +2097,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>711146876943172</v>
+        <v>0.0008175327044620945</v>
       </c>
       <c r="C109" t="n">
-        <v>15310865174436.01</v>
+        <v>1.764964756281059e-05</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>885643343029824.2</v>
+        <v>0.001018929349845402</v>
       </c>
       <c r="C110" t="n">
-        <v>18971551811384.94</v>
+        <v>2.185114755441302e-05</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>1087209148105689</v>
+        <v>0.001247460824947995</v>
       </c>
       <c r="C111" t="n">
-        <v>23299586088942.92</v>
+        <v>2.67669666680588e-05</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>1098979303630393</v>
+        <v>0.001263384076862166</v>
       </c>
       <c r="C112" t="n">
-        <v>23616425110298.35</v>
+        <v>2.718914806098713e-05</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>1232723142263198</v>
+        <v>0.001413804343829883</v>
       </c>
       <c r="C113" t="n">
-        <v>26459978944660.82</v>
+        <v>3.038050410630124e-05</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>1260358494386712</v>
+        <v>0.001446600898177284</v>
       </c>
       <c r="C114" t="n">
-        <v>27019526730401.15</v>
+        <v>3.103994996018391e-05</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>1251903881089818</v>
+        <v>0.001437927318933397</v>
       </c>
       <c r="C115" t="n">
-        <v>26881433031080.48</v>
+        <v>3.090691797559044e-05</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2209,13 +2209,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>1231477950962289</v>
+        <v>0.001413878171703023</v>
       </c>
       <c r="C116" t="n">
-        <v>26423088847491.1</v>
+        <v>3.037049835831249e-05</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>1232424934386821</v>
+        <v>0.001412943844334474</v>
       </c>
       <c r="C117" t="n">
-        <v>26489603543546.3</v>
+        <v>3.042414390113234e-05</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>1171625750321631</v>
+        <v>0.00134248747869666</v>
       </c>
       <c r="C118" t="n">
-        <v>25111107692926.71</v>
+        <v>2.879955755623567e-05</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2257,13 +2257,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>1141684733450313</v>
+        <v>0.001310767535726473</v>
       </c>
       <c r="C119" t="n">
-        <v>24513626293486.18</v>
+        <v>2.817646984259285e-05</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>939322193780635</v>
+        <v>0.001079480795987339</v>
       </c>
       <c r="C120" t="n">
-        <v>20194306605930.86</v>
+        <v>2.323764320034518e-05</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>871142874589816.9</v>
+        <v>0.001002487270452292</v>
       </c>
       <c r="C121" t="n">
-        <v>18762417995122.17</v>
+        <v>2.163835173932433e-05</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>733741273274903.6</v>
+        <v>0.0008436402989069379</v>
       </c>
       <c r="C122" t="n">
-        <v>15749858845203.01</v>
+        <v>1.813500350335202e-05</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>570169330945967.9</v>
+        <v>0.0006555024557525501</v>
       </c>
       <c r="C123" t="n">
-        <v>12236610480218.19</v>
+        <v>1.40915367228798e-05</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>520960766850428.5</v>
+        <v>0.0006003142374866948</v>
       </c>
       <c r="C124" t="n">
-        <v>11289955921520.43</v>
+        <v>1.30621478430669e-05</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>448692220540397.1</v>
+        <v>0.0005178244503995187</v>
       </c>
       <c r="C125" t="n">
-        <v>9669270536604.275</v>
+        <v>1.12047009314953e-05</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>426836320020814</v>
+        <v>0.0004924906667120909</v>
       </c>
       <c r="C126" t="n">
-        <v>9249707380345.838</v>
+        <v>1.072739100652768e-05</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>428220507490185.8</v>
+        <v>0.0004949468721124604</v>
       </c>
       <c r="C127" t="n">
-        <v>9274055679623.66</v>
+        <v>1.077005647761174e-05</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>424475654734085.6</v>
+        <v>0.0004905477146969549</v>
       </c>
       <c r="C128" t="n">
-        <v>9279342421068.648</v>
+        <v>1.081870813572907e-05</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2417,13 +2417,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>411413651206251.9</v>
+        <v>0.0004747381804099421</v>
       </c>
       <c r="C129" t="n">
-        <v>9221139707796.865</v>
+        <v>1.086988650434233e-05</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>415053918225168.2</v>
+        <v>0.0004795190622356338</v>
       </c>
       <c r="C130" t="n">
-        <v>9378084894854.867</v>
+        <v>1.111875264582302e-05</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>418688985208763.2</v>
+        <v>0.0004854459674058228</v>
       </c>
       <c r="C131" t="n">
-        <v>9593448840658.232</v>
+        <v>1.145630015189541e-05</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2465,13 +2465,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>468459937498036.2</v>
+        <v>0.0005385768594074822</v>
       </c>
       <c r="C132" t="n">
-        <v>10518371005606.3</v>
+        <v>1.239319985064076e-05</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>510380767108499.5</v>
+        <v>0.0005889863724444662</v>
       </c>
       <c r="C133" t="n">
-        <v>11433301136298.31</v>
+        <v>1.347648697252575e-05</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>536749435557534.4</v>
+        <v>0.0006188644388032265</v>
       </c>
       <c r="C134" t="n">
-        <v>12015822746480.91</v>
+        <v>1.412347761002738e-05</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>542498284214874.9</v>
+        <v>0.0006267568343401412</v>
       </c>
       <c r="C135" t="n">
-        <v>12248506756572.19</v>
+        <v>1.446892072255575e-05</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>530949458876311.8</v>
+        <v>0.0006112363730944034</v>
       </c>
       <c r="C136" t="n">
-        <v>11908148928441.6</v>
+        <v>1.396159959585536e-05</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>504873618491211.5</v>
+        <v>0.0005811057740307053</v>
       </c>
       <c r="C137" t="n">
-        <v>11365180831175.19</v>
+        <v>1.331496063826212e-05</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>433800564146799.8</v>
+        <v>0.0005007748748343772</v>
       </c>
       <c r="C138" t="n">
-        <v>9670678634296.561</v>
+        <v>1.133395448435698e-05</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>271389631796271.2</v>
+        <v>0.0003144646372976646</v>
       </c>
       <c r="C139" t="n">
-        <v>6056641029577.873</v>
+        <v>7.189242804113427e-06</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2593,13 +2593,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>228430312559777.3</v>
+        <v>0.0002649791751364269</v>
       </c>
       <c r="C140" t="n">
-        <v>5168434433672.025</v>
+        <v>6.200490582280244e-06</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>183374840152104.8</v>
+        <v>0.0002144504797710429</v>
       </c>
       <c r="C141" t="n">
-        <v>4072815656587.061</v>
+        <v>4.893541637998593e-06</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2625,13 +2625,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>141757173784112</v>
+        <v>0.0001661759423754702</v>
       </c>
       <c r="C142" t="n">
-        <v>3202630344705.854</v>
+        <v>3.919883920734945e-06</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>132918808792600.5</v>
+        <v>0.0001568822831304025</v>
       </c>
       <c r="C143" t="n">
-        <v>3061293632118.089</v>
+        <v>3.801868894528873e-06</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>130328253916878.8</v>
+        <v>0.000154089005918005</v>
       </c>
       <c r="C144" t="n">
-        <v>3376011570125.793</v>
+        <v>4.607453927990762e-06</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>133644742707566.7</v>
+        <v>0.000157784197857756</v>
       </c>
       <c r="C145" t="n">
-        <v>3330897763136.532</v>
+        <v>4.752274524372786e-06</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>127373636838655.4</v>
+        <v>0.0001499738488805022</v>
       </c>
       <c r="C146" t="n">
-        <v>3398159866583.526</v>
+        <v>5.002151341238136e-06</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>127316713753435.2</v>
+        <v>0.0001498256101716457</v>
       </c>
       <c r="C147" t="n">
-        <v>3499979655514.659</v>
+        <v>5.321681946310979e-06</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>127507549881145.1</v>
+        <v>0.0001509952152315341</v>
       </c>
       <c r="C148" t="n">
-        <v>3501370330349.827</v>
+        <v>5.306863430275674e-06</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2737,13 +2737,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>126954312743451.1</v>
+        <v>0.0001491250498508947</v>
       </c>
       <c r="C149" t="n">
-        <v>3470801342751.087</v>
+        <v>5.432350824344991e-06</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>124862597343529.7</v>
+        <v>0.0001462175512200681</v>
       </c>
       <c r="C150" t="n">
-        <v>3451765465031.524</v>
+        <v>5.738430102385013e-06</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>122139984537016.3</v>
+        <v>0.0001425040093390057</v>
       </c>
       <c r="C151" t="n">
-        <v>3333068911382.635</v>
+        <v>5.401615737112318e-06</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>122361628656508.2</v>
+        <v>0.0001406823238087234</v>
       </c>
       <c r="C152" t="n">
-        <v>3404913109813.265</v>
+        <v>5.544527232792926e-06</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2801,13 +2801,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>110806132361239.3</v>
+        <v>0.0001320482221476352</v>
       </c>
       <c r="C153" t="n">
-        <v>3080482570743.457</v>
+        <v>5.14846653167752e-06</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>112107031224999.4</v>
+        <v>0.0001329734458245822</v>
       </c>
       <c r="C154" t="n">
-        <v>3181365593130.129</v>
+        <v>5.099227317541535e-06</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>113194851398485.8</v>
+        <v>0.0001353948002888573</v>
       </c>
       <c r="C155" t="n">
-        <v>3213517541825.264</v>
+        <v>5.54887575016571e-06</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>112556380541212.8</v>
+        <v>0.0001339368002657472</v>
       </c>
       <c r="C156" t="n">
-        <v>3118717549425.994</v>
+        <v>4.915681537480908e-06</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>99476279872270.5</v>
+        <v>0.0001182658875668872</v>
       </c>
       <c r="C157" t="n">
-        <v>2655093587081.149</v>
+        <v>4.144726541567295e-06</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>86944889756154.75</v>
+        <v>0.0001042160423224206</v>
       </c>
       <c r="C158" t="n">
-        <v>2491020944256.428</v>
+        <v>3.956320511145999e-06</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>82045381759377.45</v>
+        <v>9.825158301943857e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>2183164638854.515</v>
+        <v>3.223599250655131e-06</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2913,13 +2913,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>80027097296065</v>
+        <v>9.546037112449829e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>2285227042590.741</v>
+        <v>3.494418008934191e-06</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>99086246663049.8</v>
+        <v>0.0001194426448815921</v>
       </c>
       <c r="C161" t="n">
-        <v>2533577694226.042</v>
+        <v>3.457983900539127e-06</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -2945,13 +2945,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>173395793873688.9</v>
+        <v>0.0002047661483932359</v>
       </c>
       <c r="C162" t="n">
-        <v>4205180414859.121</v>
+        <v>5.370324838355433e-06</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -2961,13 +2961,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>211362863671946.8</v>
+        <v>0.0002474963806390065</v>
       </c>
       <c r="C163" t="n">
-        <v>4941720047123.148</v>
+        <v>6.110222311585727e-06</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>225222960802008.2</v>
+        <v>0.0002641274563646609</v>
       </c>
       <c r="C164" t="n">
-        <v>5231117469255.348</v>
+        <v>6.405386883372231e-06</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>229818571430723.4</v>
+        <v>0.0002684212710747991</v>
       </c>
       <c r="C165" t="n">
-        <v>5369899447506.471</v>
+        <v>6.581064525512518e-06</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>234347637436355.2</v>
+        <v>0.0002761204787305192</v>
       </c>
       <c r="C166" t="n">
-        <v>5570357330828.191</v>
+        <v>6.922472789742694e-06</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>236373513395028.7</v>
+        <v>0.0002772090502629586</v>
       </c>
       <c r="C167" t="n">
-        <v>5405623637490.465</v>
+        <v>6.591368064817439e-06</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>228382072370480.1</v>
+        <v>0.0002669659502916083</v>
       </c>
       <c r="C168" t="n">
-        <v>5190890524905.69</v>
+        <v>6.295637882943316e-06</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>210203852669984.1</v>
+        <v>0.0002467022835756218</v>
       </c>
       <c r="C169" t="n">
-        <v>4737240821851.121</v>
+        <v>5.729026924309123e-06</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>131873890212215.8</v>
+        <v>0.0001554209260743974</v>
       </c>
       <c r="C170" t="n">
-        <v>3137412117268.295</v>
+        <v>3.929687833778485e-06</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>85951257638370.34</v>
+        <v>0.0001019634331928368</v>
       </c>
       <c r="C171" t="n">
-        <v>1995583615946.828</v>
+        <v>2.530357400426648e-06</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>78514365317925.02</v>
+        <v>9.426329830439298e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1873671540101.977</v>
+        <v>2.456676952700786e-06</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>90892494005842.98</v>
+        <v>0.0001073873220752187</v>
       </c>
       <c r="C173" t="n">
-        <v>2304968928722.36</v>
+        <v>3.110806056947593e-06</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3137,13 +3137,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>127892246234121.5</v>
+        <v>0.0001516502857053022</v>
       </c>
       <c r="C174" t="n">
-        <v>2980837122889.24</v>
+        <v>3.853432897729309e-06</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>142149045215544.8</v>
+        <v>0.0001683805302720408</v>
       </c>
       <c r="C175" t="n">
-        <v>3547858392557.375</v>
+        <v>4.790974686417191e-06</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>215955621701852.5</v>
+        <v>0.0002533092705568335</v>
       </c>
       <c r="C176" t="n">
-        <v>5416389967760.852</v>
+        <v>7.175042730794451e-06</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>290383098375577.6</v>
+        <v>0.0003369341610294364</v>
       </c>
       <c r="C177" t="n">
-        <v>7057974529511.873</v>
+        <v>9.059239430665772e-06</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>300620783380180.8</v>
+        <v>0.0003533614616581649</v>
       </c>
       <c r="C178" t="n">
-        <v>7655118906739.721</v>
+        <v>1.022706953298308e-05</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>289717047972777.5</v>
+        <v>0.0003382549622441748</v>
       </c>
       <c r="C179" t="n">
-        <v>7442287589470.524</v>
+        <v>1.012916581262063e-05</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>261302234323448</v>
+        <v>0.0003030048534695375</v>
       </c>
       <c r="C180" t="n">
-        <v>6908258564359.784</v>
+        <v>6.438856793711838e-06</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3249,13 +3249,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>259398449082585.2</v>
+        <v>0.0002698683195324782</v>
       </c>
       <c r="C181" t="n">
-        <v>6271672028100.281</v>
+        <v>1.046805117106971e-05</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>232571746985873.6</v>
+        <v>0.0002302895590382131</v>
       </c>
       <c r="C182" t="n">
-        <v>6644826742826.817</v>
+        <v>1.07084703545106e-05</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3281,13 +3281,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>198013625969831.8</v>
+        <v>0.0002137572461907725</v>
       </c>
       <c r="C183" t="n">
-        <v>6149985946124.995</v>
+        <v>9.410822281166624e-06</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3297,13 +3297,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>182147857443775.2</v>
+        <v>0.0002134440920054226</v>
       </c>
       <c r="C184" t="n">
-        <v>5186198464166.118</v>
+        <v>1.013768654759354e-05</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3313,13 +3313,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>180120154285623.5</v>
+        <v>0.0002054999934364453</v>
       </c>
       <c r="C185" t="n">
-        <v>5193834967577.652</v>
+        <v>8.077660776433616e-06</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3329,13 +3329,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>177764060776985.5</v>
+        <v>0.0002050953231037433</v>
       </c>
       <c r="C186" t="n">
-        <v>4651973705012.312</v>
+        <v>8.538994593758959e-06</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>175822243967181.5</v>
+        <v>0.0001982799249158136</v>
       </c>
       <c r="C187" t="n">
-        <v>4785382313556.995</v>
+        <v>8.476199767784058e-06</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3361,13 +3361,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>165423923209201.8</v>
+        <v>0.0002190489297069628</v>
       </c>
       <c r="C188" t="n">
-        <v>4631368749360.219</v>
+        <v>7.148547674049021e-06</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>185749379911228.4</v>
+        <v>0.0002523645824578704</v>
       </c>
       <c r="C189" t="n">
-        <v>4599466249979.844</v>
+        <v>7.786849665831584e-06</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3393,13 +3393,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>214597165764737.2</v>
+        <v>0.0002844488730540274</v>
       </c>
       <c r="C190" t="n">
-        <v>5320608756637.086</v>
+        <v>8.149515539395183e-06</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3409,13 +3409,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>243336546587380.6</v>
+        <v>0.0003220944484312922</v>
       </c>
       <c r="C191" t="n">
-        <v>5933197639960.43</v>
+        <v>8.465537798306425e-06</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>275446680792918.5</v>
+        <v>0.0003720906526126374</v>
       </c>
       <c r="C192" t="n">
-        <v>6519796997958.752</v>
+        <v>9.351221688812399e-06</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>320118330033676.8</v>
+        <v>0.0004112580306074165</v>
       </c>
       <c r="C193" t="n">
-        <v>7491536124511.082</v>
+        <v>7.120333731945223e-06</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>362718069907865.3</v>
+        <v>0.0004029966337780115</v>
       </c>
       <c r="C194" t="n">
-        <v>8489792121711.501</v>
+        <v>9.44344847444479e-06</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3473,13 +3473,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>345758952168914.1</v>
+        <v>0.0003652952674746949</v>
       </c>
       <c r="C195" t="n">
-        <v>7929744440421.732</v>
+        <v>8.590142098724413e-06</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>348448777094277.5</v>
+        <v>0.0003591896829728681</v>
       </c>
       <c r="C196" t="n">
-        <v>7876500113396.267</v>
+        <v>8.323580978215767e-06</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3505,13 +3505,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>314555715847780</v>
+        <v>0.0003201188323448926</v>
       </c>
       <c r="C197" t="n">
-        <v>7137773959509.985</v>
+        <v>7.441453452979646e-06</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3521,13 +3521,13 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>308958067016120.7</v>
+        <v>0.0003072949705228593</v>
       </c>
       <c r="C198" t="n">
-        <v>6940302784533.623</v>
+        <v>7.054765834765143e-06</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>274934230046648.1</v>
+        <v>0.0002998980509228071</v>
       </c>
       <c r="C199" t="n">
-        <v>6194466623599.975</v>
+        <v>6.860367042063352e-06</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3553,13 +3553,13 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>263626321995617.8</v>
+        <v>0.0003793992020796852</v>
       </c>
       <c r="C200" t="n">
-        <v>5885420503320.469</v>
+        <v>9.093537923387279e-06</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3569,13 +3569,13 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>256988809341625.8</v>
+        <v>0.0003335496801437979</v>
       </c>
       <c r="C201" t="n">
-        <v>5729209322790.296</v>
+        <v>7.499470429863113e-06</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3585,13 +3585,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>327293257020775.8</v>
+        <v>0.0003522299971491166</v>
       </c>
       <c r="C202" t="n">
-        <v>7523501317200.297</v>
+        <v>8.671544505580263e-06</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3601,13 +3601,13 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>286044489235906</v>
+        <v>0.0003208765120351591</v>
       </c>
       <c r="C203" t="n">
-        <v>6305529904905.77</v>
+        <v>8.022123232493205e-06</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>302613952081382.3</v>
+        <v>0.000301636663995553</v>
       </c>
       <c r="C204" t="n">
-        <v>7073901114172.108</v>
+        <v>7.549296275367747e-06</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3633,13 +3633,13 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>275455680096312.4</v>
+        <v>0.0002873874190538986</v>
       </c>
       <c r="C205" t="n">
-        <v>6457246529244.293</v>
+        <v>7.23606848283689e-06</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>258663279800203.2</v>
+        <v>0.0002667895600324003</v>
       </c>
       <c r="C206" t="n">
-        <v>6103398609020.76</v>
+        <v>6.909732159280574e-06</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3665,13 +3665,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>245618655513463.5</v>
+        <v>0.0002499897881403098</v>
       </c>
       <c r="C207" t="n">
-        <v>5812217269079.579</v>
+        <v>6.031251258217864e-06</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3681,13 +3681,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>230711196282329.3</v>
+        <v>0.0002557170886360718</v>
       </c>
       <c r="C208" t="n">
-        <v>5525051736136.76</v>
+        <v>6.530519656847521e-06</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3697,13 +3697,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>213864914024699.4</v>
+        <v>0.0001333272236168415</v>
       </c>
       <c r="C209" t="n">
-        <v>4889844211661.061</v>
+        <v>3.344760437487491e-06</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>217341743415957.3</v>
+        <v>5.558360881978164e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>5153688532597.58</v>
+        <v>1.669826350165828e-06</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3729,13 +3729,13 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>112060923788373.7</v>
+        <v>3.367342250719275e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>2595467275669.063</v>
+        <v>1.094737882152522e-06</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3745,13 +3745,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>46250263364968.02</v>
+        <v>4.851270818637564e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>1151530671574.797</v>
+        <v>1.371682989147362e-06</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>28693823398311.72</v>
+        <v>3.024400979006526e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>735863826573.0381</v>
+        <v>9.569242030940974e-07</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3777,13 +3777,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>40550168839427.31</v>
+        <v>2.429826654919361e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>973263881974.3331</v>
+        <v>8.107414824484559e-07</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>25212628168779.03</v>
+        <v>2.053020319480466e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>631226643234.2577</v>
+        <v>6.589923072121578e-07</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3809,13 +3809,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>20472401959918.18</v>
+        <v>2.081108191268817e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>517129114992.6357</v>
+        <v>7.056616651014882e-07</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3825,13 +3825,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>17419221054161.87</v>
+        <v>3.08516422066349e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>425090065903.4384</v>
+        <v>8.933761364847655e-07</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3841,13 +3841,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>17782057933988.89</v>
+        <v>5.716787061434692e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>442643550716.2861</v>
+        <v>1.459101358542439e-06</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3857,13 +3857,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>25559969896593.3</v>
+        <v>6.413886584933437e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>608523838665.2429</v>
+        <v>1.621758532080767e-06</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3873,13 +3873,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>47750629409707.36</v>
+        <v>5.613772964982172e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>1093556841416.982</v>
+        <v>1.38089654299789e-06</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3889,47 +3889,15 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>53488611396873.98</v>
+        <v>5.012694072240722e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>1225894315693.098</v>
+        <v>1.325505922158906e-06</v>
       </c>
       <c r="D221" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>47034576098261.28</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1062284749322.175</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>41951663318838.21</v>
-      </c>
-      <c r="C223" t="n">
-        <v>969518042978.1547</v>
-      </c>
-      <c r="D223" t="inlineStr">
         <is>
           <t>4</t>
         </is>

--- a/legendre_out/DATA/p1/p1CrossPoints.xlsx
+++ b/legendre_out/DATA/p1/p1CrossPoints.xlsx
@@ -388,10 +388,10 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>3.372494587124335e-06</v>
+        <v>1.842321682521664e-15</v>
       </c>
       <c r="C2" t="n">
-        <v>1.92754001769666e-07</v>
+        <v>1.201527610508341e-15</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -404,10 +404,10 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>4.731923760986697e-06</v>
+        <v>3.15586266601102e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>2.133956484545425e-07</v>
+        <v>1.146109746963577e-07</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -420,10 +420,10 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>5.849064709830042e-06</v>
+        <v>2.062741237422468e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>2.958666506456609e-07</v>
+        <v>1.116253775198091e-07</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -436,10 +436,10 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>5.768119803905645e-06</v>
+        <v>3.20210617498698e-16</v>
       </c>
       <c r="C5" t="n">
-        <v>2.860565497162185e-07</v>
+        <v>2.886339443333334e-16</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -452,10 +452,10 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>7.121872733167491e-06</v>
+        <v>1.292761073294624e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>3.477774980709511e-07</v>
+        <v>5.864926110646307e-08</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -468,10 +468,10 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>5.719029067566988e-06</v>
+        <v>9.2540489891507e-16</v>
       </c>
       <c r="C7" t="n">
-        <v>3.048991801674087e-07</v>
+        <v>8.341486886244103e-16</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -484,10 +484,10 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>5.709746773728273e-06</v>
+        <v>5.620596753978658e-07</v>
       </c>
       <c r="C8" t="n">
-        <v>2.739383086695766e-07</v>
+        <v>1.533134872058974e-07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -500,10 +500,10 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>7.281901616961e-06</v>
+        <v>1.205947269006116e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>2.766919538089675e-07</v>
+        <v>1.53555804525265e-07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>5.578393692486292e-06</v>
+        <v>1.843916033922848e-16</v>
       </c>
       <c r="C10" t="n">
-        <v>3.001962570713191e-07</v>
+        <v>1.662083444066306e-16</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -532,10 +532,10 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>5.702698367797394e-06</v>
+        <v>1.659980270463102e-07</v>
       </c>
       <c r="C11" t="n">
-        <v>2.966065258239993e-07</v>
+        <v>4.742339231703063e-08</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -548,10 +548,10 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>6.247255733421057e-06</v>
+        <v>6.524667260730455e-07</v>
       </c>
       <c r="C12" t="n">
-        <v>2.579677612131593e-07</v>
+        <v>1.697545938920564e-07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -564,10 +564,10 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>4.530414526288905e-06</v>
+        <v>3.302223540973566e-07</v>
       </c>
       <c r="C13" t="n">
-        <v>2.244602777148425e-07</v>
+        <v>9.683835154624463e-08</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>7.517504925974704e-06</v>
+        <v>2.171493847082093e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>2.901214940516563e-07</v>
+        <v>1.442473845515789e-07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -596,10 +596,10 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>7.828124222148932e-06</v>
+        <v>1.542980168422291e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>3.079653463719955e-07</v>
+        <v>1.129987863991542e-07</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -612,10 +612,10 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>6.475559125296826e-06</v>
+        <v>1.319469556872689e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>3.476660713117816e-07</v>
+        <v>1.272823197139031e-07</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -628,10 +628,10 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>5.374351802266416e-06</v>
+        <v>1.579373726310039e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>3.054553924678554e-07</v>
+        <v>1.622625262971912e-07</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -644,10 +644,10 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>5.881596851562583e-06</v>
+        <v>9.338256715396565e-07</v>
       </c>
       <c r="C18" t="n">
-        <v>3.456018310780421e-07</v>
+        <v>7.924678360399011e-08</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>6.455347913377264e-06</v>
+        <v>2.287401392721232e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>3.732274833180166e-07</v>
+        <v>2.057723826562578e-07</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -676,10 +676,10 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>6.349917220158663e-06</v>
+        <v>1.848217232313512e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>3.987925265128301e-07</v>
+        <v>2.054252958034246e-07</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -692,10 +692,10 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>7.534501738315605e-06</v>
+        <v>3.641350898802844e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>4.738014956194683e-07</v>
+        <v>2.924623188341316e-07</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -708,10 +708,10 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>1.256176782887475e-05</v>
+        <v>7.808990449096654e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>1.022570449828533e-06</v>
+        <v>7.217554448102713e-07</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>1.44820912081275e-05</v>
+        <v>1.194722532859255e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>1.373807074272411e-06</v>
+        <v>1.098008319807697e-06</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -740,10 +740,10 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>2.339439080704756e-05</v>
+        <v>1.797536814374384e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>2.172858923982146e-06</v>
+        <v>1.959987383164787e-06</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>2.163929063898535e-05</v>
+        <v>1.799550100587913e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>1.828682253869954e-06</v>
+        <v>1.60035033402547e-06</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -772,10 +772,10 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>2.093593116605353e-05</v>
+        <v>1.725586324114585e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>1.795458818665482e-06</v>
+        <v>1.727085497181141e-06</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -788,10 +788,10 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>2.275103783567754e-05</v>
+        <v>1.855321036592245e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>1.86134762022302e-06</v>
+        <v>1.639930720491739e-06</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -804,10 +804,10 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>2.168019976031599e-05</v>
+        <v>1.917450807088067e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>1.895960953816057e-06</v>
+        <v>1.572650470114481e-06</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -820,10 +820,10 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>2.285857319623462e-05</v>
+        <v>2.002751898238417e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1.945761561669309e-06</v>
+        <v>1.552626593813978e-06</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -836,10 +836,10 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>2.066014269766546e-05</v>
+        <v>1.581084837357207e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>1.849309127484569e-06</v>
+        <v>1.384458321475181e-06</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -852,10 +852,10 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>2.208789966646039e-05</v>
+        <v>2.003516118753307e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>1.802882592560107e-06</v>
+        <v>1.6083969065651e-06</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -868,10 +868,10 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>1.962252655758504e-05</v>
+        <v>1.74041391009421e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>1.797183380038603e-06</v>
+        <v>1.460945208220699e-06</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>2.153989994239612e-05</v>
+        <v>1.595457000540583e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>1.769374467468302e-06</v>
+        <v>1.447521193099861e-06</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -900,10 +900,10 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>2.167517876945007e-05</v>
+        <v>1.812359625489732e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>1.86664146613645e-06</v>
+        <v>1.531517340226809e-06</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -916,10 +916,10 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>2.021136534209546e-05</v>
+        <v>1.618919926911771e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>1.53957949460217e-06</v>
+        <v>1.263692442826101e-06</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -932,10 +932,10 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>1.948020739489318e-05</v>
+        <v>1.561754155944317e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>1.505258729810725e-06</v>
+        <v>1.286900928851272e-06</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -948,10 +948,10 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>1.511739640264471e-05</v>
+        <v>9.790179848102364e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>1.125974544329025e-06</v>
+        <v>8.366643067826915e-07</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -964,10 +964,10 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>1.46860235144542e-05</v>
+        <v>1.029949655089815e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1.07705758091687e-06</v>
+        <v>7.314708957224546e-07</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -980,10 +980,10 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>1.356436783395522e-05</v>
+        <v>8.557240727891706e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>8.030054883382562e-07</v>
+        <v>5.607117765892798e-07</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -996,10 +996,10 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>1.262469091308399e-05</v>
+        <v>1.061317745500604e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>9.490303920537941e-07</v>
+        <v>7.621929832461147e-07</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1012,10 +1012,10 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>1.952673362931542e-05</v>
+        <v>1.367196141788666e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>8.135075032040761e-07</v>
+        <v>5.98158155043271e-07</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>1.920012161036046e-05</v>
+        <v>1.277290878391725e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>7.145952143613307e-07</v>
+        <v>5.037462915927293e-07</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1044,10 +1044,10 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>1.878359102845844e-05</v>
+        <v>1.189601722649087e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>6.299907455647611e-07</v>
+        <v>4.250503917338214e-07</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1060,10 +1060,10 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>1.733423286308215e-05</v>
+        <v>9.810979241330428e-06</v>
       </c>
       <c r="C44" t="n">
-        <v>5.677179321887165e-07</v>
+        <v>3.581819172064704e-07</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>1.775453536190577e-05</v>
+        <v>9.88066217192998e-06</v>
       </c>
       <c r="C45" t="n">
-        <v>5.839660055790831e-07</v>
+        <v>3.597170770653069e-07</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1092,10 +1092,10 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>1.67413562255172e-05</v>
+        <v>1.138412807708822e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>5.258189573674214e-07</v>
+        <v>3.669062756840024e-07</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1108,10 +1108,10 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>1.171256748512552e-05</v>
+        <v>6.128889306639345e-06</v>
       </c>
       <c r="C47" t="n">
-        <v>4.268756931125164e-07</v>
+        <v>2.624522371392815e-07</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>1.507927856809864e-05</v>
+        <v>9.354030125780646e-06</v>
       </c>
       <c r="C48" t="n">
-        <v>5.056540450973533e-07</v>
+        <v>3.434967482224411e-07</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>2.256682989128956e-05</v>
+        <v>1.610299336455792e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>7.099574864173557e-07</v>
+        <v>5.084700065090076e-07</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1156,10 +1156,10 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>3.318397724450397e-05</v>
+        <v>2.741200404395199e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>9.817773391778243e-07</v>
+        <v>7.941403942037102e-07</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1172,10 +1172,10 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>4.556634633541144e-05</v>
+        <v>4.093199588839855e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1.243981373856157e-06</v>
+        <v>1.087302184422856e-06</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1188,10 +1188,10 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>9.348939441872714e-05</v>
+        <v>8.574453601381008e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>2.616245922045395e-06</v>
+        <v>2.337262225709406e-06</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1204,10 +1204,10 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001587823067375679</v>
+        <v>0.0001540837225823801</v>
       </c>
       <c r="C53" t="n">
-        <v>4.181995980071148e-06</v>
+        <v>3.960691721523175e-06</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1220,10 +1220,10 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004286741497562416</v>
+        <v>0.0004185254758496623</v>
       </c>
       <c r="C54" t="n">
-        <v>1.107972219342135e-05</v>
+        <v>1.075299804303323e-05</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1236,10 +1236,10 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006916419759080243</v>
+        <v>0.0006771594275309888</v>
       </c>
       <c r="C55" t="n">
-        <v>1.728893973025029e-05</v>
+        <v>1.68043525815426e-05</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1252,10 +1252,10 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007666966255308392</v>
+        <v>0.0007609856284760203</v>
       </c>
       <c r="C56" t="n">
-        <v>1.864454772158979e-05</v>
+        <v>1.840766761043467e-05</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1268,10 +1268,10 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0006163228447607172</v>
+        <v>0.0006082662160962157</v>
       </c>
       <c r="C57" t="n">
-        <v>1.512878971122309e-05</v>
+        <v>1.483598009236291e-05</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>0.000319316190606334</v>
+        <v>0.0003162205283023008</v>
       </c>
       <c r="C58" t="n">
-        <v>7.857102355755425e-06</v>
+        <v>7.704322034433843e-06</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0002467386442911436</v>
+        <v>0.000239473016793749</v>
       </c>
       <c r="C59" t="n">
-        <v>6.105099408978051e-06</v>
+        <v>5.8592441965327e-06</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1316,10 +1316,10 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0003122709672196198</v>
+        <v>0.0003083421386796544</v>
       </c>
       <c r="C60" t="n">
-        <v>7.613292142339062e-06</v>
+        <v>7.429289672553836e-06</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001397924971713014</v>
+        <v>0.000133431170493715</v>
       </c>
       <c r="C61" t="n">
-        <v>3.459396714747738e-06</v>
+        <v>3.259160607707602e-06</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1348,10 +1348,10 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>9.93027100314175e-05</v>
+        <v>9.489263171271623e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>2.432258202463491e-06</v>
+        <v>2.275323563594102e-06</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1364,10 +1364,10 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>5.82010418302845e-05</v>
+        <v>5.034787048527999e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1.476235376364794e-06</v>
+        <v>1.269212850512299e-06</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1380,10 +1380,10 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>3.180464618010786e-05</v>
+        <v>2.572104215820301e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>8.699691077783454e-07</v>
+        <v>7.016980510753958e-07</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>2.435174044814659e-05</v>
+        <v>1.956188820753355e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>9.497137886867073e-07</v>
+        <v>7.445223880613415e-07</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1412,10 +1412,10 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>2.431460521088759e-05</v>
+        <v>1.846978136340486e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>1.430332616124123e-06</v>
+        <v>1.139581766898175e-06</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>2.997896967625027e-05</v>
+        <v>2.548247275814254e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>2.095838388650363e-06</v>
+        <v>1.706088673289899e-06</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1444,10 +1444,10 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>3.773528884468832e-05</v>
+        <v>3.579719410475164e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>3.147924060762386e-06</v>
+        <v>2.906718050089319e-06</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>3.644496200351228e-05</v>
+        <v>3.068538726780473e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>2.840737710598322e-06</v>
+        <v>2.477153296579418e-06</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1476,10 +1476,10 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>7.539647528538617e-05</v>
+        <v>6.539829397922024e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>5.592275771538716e-06</v>
+        <v>4.524790138033713e-06</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0001177593343461616</v>
+        <v>0.0001043058846009923</v>
       </c>
       <c r="C71" t="n">
-        <v>7.575790112530283e-06</v>
+        <v>6.582273857894711e-06</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0002747160445918518</v>
+        <v>0.0002721633395689734</v>
       </c>
       <c r="C72" t="n">
-        <v>8.281066750638463e-06</v>
+        <v>7.972679357485568e-06</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1524,10 +1524,10 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0007001741481618946</v>
+        <v>0.0006959916085620691</v>
       </c>
       <c r="C73" t="n">
-        <v>1.948925176332316e-05</v>
+        <v>1.90858476703635e-05</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1540,10 +1540,10 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0006944263148402825</v>
+        <v>0.0006855525748565036</v>
       </c>
       <c r="C74" t="n">
-        <v>1.945402581760293e-05</v>
+        <v>1.899283639075719e-05</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1556,10 +1556,10 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0003715870403199232</v>
+        <v>0.0003693329421540901</v>
       </c>
       <c r="C75" t="n">
-        <v>1.185000593402001e-05</v>
+        <v>1.143024434780161e-05</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0001978308078467037</v>
+        <v>0.0001908825587179423</v>
       </c>
       <c r="C76" t="n">
-        <v>6.350036202736959e-06</v>
+        <v>5.92156779062683e-06</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1588,10 +1588,10 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0001001128981236066</v>
+        <v>9.5809680625977e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>4.096105712170064e-06</v>
+        <v>3.740009636113274e-06</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1604,10 +1604,10 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0001024742453363567</v>
+        <v>9.75117998709503e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>5.771516645750734e-06</v>
+        <v>5.744719489905268e-06</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1620,10 +1620,10 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>7.069920172003784e-05</v>
+        <v>7.268438878292919e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>5.788489040276882e-06</v>
+        <v>5.61337494859179e-06</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>6.613620547065268e-05</v>
+        <v>5.074091704223127e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>4.49327159950087e-06</v>
+        <v>3.767478045592986e-06</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1652,10 +1652,10 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>3.990004485368847e-05</v>
+        <v>3.914971126201494e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>2.634641385971952e-06</v>
+        <v>2.486538562879816e-06</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1668,10 +1668,10 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>4.817248212202192e-05</v>
+        <v>4.661912065025715e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>2.492146369591656e-06</v>
+        <v>2.156148727700152e-06</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1684,10 +1684,10 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0001029058944213939</v>
+        <v>0.0001011920556082311</v>
       </c>
       <c r="C83" t="n">
-        <v>3.387500286305067e-06</v>
+        <v>3.189045299435483e-06</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>6.92211208987635e-05</v>
+        <v>6.803291873312184e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>2.131669403887471e-06</v>
+        <v>1.974840160753174e-06</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1716,10 +1716,10 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>3.118583579000698e-05</v>
+        <v>2.859172865379872e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1.145764758034824e-06</v>
+        <v>9.638106042346899e-07</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1732,10 +1732,10 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>2.803546676990907e-05</v>
+        <v>2.457698656840962e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>9.769160427590261e-07</v>
+        <v>8.001830406606398e-07</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1748,10 +1748,10 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>2.527403779439803e-05</v>
+        <v>2.349530891542441e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>7.728936560890483e-07</v>
+        <v>6.738680424621037e-07</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1764,10 +1764,10 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>3.104851824639464e-05</v>
+        <v>2.838435819760242e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>9.373116289650624e-07</v>
+        <v>8.140809407901093e-07</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1780,10 +1780,10 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>5.786134809246361e-05</v>
+        <v>5.675879826869287e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1.633974549939168e-06</v>
+        <v>1.502494419477032e-06</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001309688229649158</v>
+        <v>0.0001291225590973927</v>
       </c>
       <c r="C90" t="n">
-        <v>3.403521533583564e-06</v>
+        <v>3.254813598108358e-06</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1812,10 +1812,10 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001474533110721191</v>
+        <v>0.0001453940754247249</v>
       </c>
       <c r="C91" t="n">
-        <v>3.748419490249509e-06</v>
+        <v>3.62443028209595e-06</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1828,10 +1828,10 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.000172771130635399</v>
+        <v>0.0001727515700678028</v>
       </c>
       <c r="C92" t="n">
-        <v>4.39063949654031e-06</v>
+        <v>4.306034658533377e-06</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1844,10 +1844,10 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001773091751178324</v>
+        <v>0.0001765582092690041</v>
       </c>
       <c r="C93" t="n">
-        <v>4.721332956267066e-06</v>
+        <v>4.581421475190795e-06</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1860,10 +1860,10 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001567387060671592</v>
+        <v>0.0001546209258313707</v>
       </c>
       <c r="C94" t="n">
-        <v>5.215739491591895e-06</v>
+        <v>4.993749308457145e-06</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1876,10 +1876,10 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001402701498385185</v>
+        <v>0.0001380455068003026</v>
       </c>
       <c r="C95" t="n">
-        <v>4.950978843353789e-06</v>
+        <v>4.635911394141482e-06</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1892,10 +1892,10 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0001061610794092345</v>
+        <v>0.000106728313519843</v>
       </c>
       <c r="C96" t="n">
-        <v>3.804928212080815e-06</v>
+        <v>3.726428605208898e-06</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1908,10 +1908,10 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>9.843323682109448e-05</v>
+        <v>9.752132617772416e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>3.234431068325017e-06</v>
+        <v>3.116290374557104e-06</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1924,10 +1924,10 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>9.168260145636775e-05</v>
+        <v>9.270016678056492e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>2.632893238803237e-06</v>
+        <v>2.516679892115109e-06</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>9.157786152488016e-05</v>
+        <v>9.010450425497208e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>2.370905979583782e-06</v>
+        <v>2.26756757701879e-06</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -1956,10 +1956,10 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>8.963935350478956e-05</v>
+        <v>8.595859420790489e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>2.173155580356842e-06</v>
+        <v>2.045927415023546e-06</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -1972,10 +1972,10 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>8.986267012281008e-05</v>
+        <v>8.648454436215296e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>2.065819672862975e-06</v>
+        <v>1.971111005660984e-06</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -1988,10 +1988,10 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0001050626448216784</v>
+        <v>0.0001035389829364219</v>
       </c>
       <c r="C102" t="n">
-        <v>2.365048058495191e-06</v>
+        <v>2.305468373325569e-06</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2004,10 +2004,10 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001412486826377977</v>
+        <v>0.000139265541813004</v>
       </c>
       <c r="C103" t="n">
-        <v>3.146458766927933e-06</v>
+        <v>3.077346906672228e-06</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0002297844507603867</v>
+        <v>0.0002298534433908774</v>
       </c>
       <c r="C104" t="n">
-        <v>4.993063394365268e-06</v>
+        <v>4.981757270331398e-06</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2036,10 +2036,10 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003458760447076312</v>
+        <v>0.0003476775350524186</v>
       </c>
       <c r="C105" t="n">
-        <v>7.611644230014609e-06</v>
+        <v>7.621713751738976e-06</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2052,10 +2052,10 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004587728259735025</v>
+        <v>0.0004606731535984519</v>
       </c>
       <c r="C106" t="n">
-        <v>9.982188592792013e-06</v>
+        <v>1.000316521653449e-05</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2068,10 +2068,10 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0006086104698159668</v>
+        <v>0.0006101733307294047</v>
       </c>
       <c r="C107" t="n">
-        <v>1.326919723433321e-05</v>
+        <v>1.32760191472204e-05</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>0.000757324471975939</v>
+        <v>0.0007608249615849465</v>
       </c>
       <c r="C108" t="n">
-        <v>1.628743940652413e-05</v>
+        <v>1.635188971048444e-05</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2100,10 +2100,10 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0008175327044620945</v>
+        <v>0.0008189204900582776</v>
       </c>
       <c r="C109" t="n">
-        <v>1.764964756281059e-05</v>
+        <v>1.765922117216059e-05</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001018929349845402</v>
+        <v>0.001019919666406563</v>
       </c>
       <c r="C110" t="n">
-        <v>2.185114755441302e-05</v>
+        <v>2.186062615868945e-05</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2132,10 +2132,10 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001247460824947995</v>
+        <v>0.00125407222230179</v>
       </c>
       <c r="C111" t="n">
-        <v>2.67669666680588e-05</v>
+        <v>2.689213421762028e-05</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2148,10 +2148,10 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001263384076862166</v>
+        <v>0.001267297020614972</v>
       </c>
       <c r="C112" t="n">
-        <v>2.718914806098713e-05</v>
+        <v>2.725626834330566e-05</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2164,10 +2164,10 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001413804343829883</v>
+        <v>0.001429608558928253</v>
       </c>
       <c r="C113" t="n">
-        <v>3.038050410630124e-05</v>
+        <v>3.066330113010145e-05</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2180,10 +2180,10 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001446600898177284</v>
+        <v>0.001450201218207186</v>
       </c>
       <c r="C114" t="n">
-        <v>3.103994996018391e-05</v>
+        <v>3.11084365333478e-05</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2196,10 +2196,10 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001437927318933397</v>
+        <v>0.001447754625311085</v>
       </c>
       <c r="C115" t="n">
-        <v>3.090691797559044e-05</v>
+        <v>3.106935843802882e-05</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2212,10 +2212,10 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001413878171703023</v>
+        <v>0.001420405333338721</v>
       </c>
       <c r="C116" t="n">
-        <v>3.037049835831249e-05</v>
+        <v>3.049095202296393e-05</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2228,10 +2228,10 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001412943844334474</v>
+        <v>0.001415497136324299</v>
       </c>
       <c r="C117" t="n">
-        <v>3.042414390113234e-05</v>
+        <v>3.045645274839607e-05</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>0.00134248747869666</v>
+        <v>0.001355857354938538</v>
       </c>
       <c r="C118" t="n">
-        <v>2.879955755623567e-05</v>
+        <v>2.903149067119491e-05</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2260,10 +2260,10 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001310767535726473</v>
+        <v>0.001315776792735278</v>
       </c>
       <c r="C119" t="n">
-        <v>2.817646984259285e-05</v>
+        <v>2.827082004668062e-05</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2276,10 +2276,10 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001079480795987339</v>
+        <v>0.00108867668157823</v>
       </c>
       <c r="C120" t="n">
-        <v>2.323764320034518e-05</v>
+        <v>2.339422417134705e-05</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2292,10 +2292,10 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001002487270452292</v>
+        <v>0.001002812537485867</v>
       </c>
       <c r="C121" t="n">
-        <v>2.163835173932433e-05</v>
+        <v>2.162950706300987e-05</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2308,10 +2308,10 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0008436402989069379</v>
+        <v>0.0008463929881449627</v>
       </c>
       <c r="C122" t="n">
-        <v>1.813500350335202e-05</v>
+        <v>1.81793530970519e-05</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2324,10 +2324,10 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0006555024557525501</v>
+        <v>0.0006595621939760145</v>
       </c>
       <c r="C123" t="n">
-        <v>1.40915367228798e-05</v>
+        <v>1.416359032713523e-05</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0006003142374866948</v>
+        <v>0.0006033437238905737</v>
       </c>
       <c r="C124" t="n">
-        <v>1.30621478430669e-05</v>
+        <v>1.310112772118345e-05</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2356,10 +2356,10 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0005178244503995187</v>
+        <v>0.0005189890304776741</v>
       </c>
       <c r="C125" t="n">
-        <v>1.12047009314953e-05</v>
+        <v>1.121547579338483e-05</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2372,10 +2372,10 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0004924906667120909</v>
+        <v>0.0004946497632545526</v>
       </c>
       <c r="C126" t="n">
-        <v>1.072739100652768e-05</v>
+        <v>1.074669444367978e-05</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2388,10 +2388,10 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0004949468721124604</v>
+        <v>0.0004961982368400843</v>
       </c>
       <c r="C127" t="n">
-        <v>1.077005647761174e-05</v>
+        <v>1.077082659877236e-05</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2404,10 +2404,10 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0004905477146969549</v>
+        <v>0.0004921411760200747</v>
       </c>
       <c r="C128" t="n">
-        <v>1.081870813572907e-05</v>
+        <v>1.081696248096598e-05</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2420,10 +2420,10 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0004747381804099421</v>
+        <v>0.0004757884560779024</v>
       </c>
       <c r="C129" t="n">
-        <v>1.086988650434233e-05</v>
+        <v>1.081054469491656e-05</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2436,10 +2436,10 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0004795190622356338</v>
+        <v>0.000480174007467863</v>
       </c>
       <c r="C130" t="n">
-        <v>1.111875264582302e-05</v>
+        <v>1.104076121488411e-05</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2452,10 +2452,10 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0004854459674058228</v>
+        <v>0.0004857996501231376</v>
       </c>
       <c r="C131" t="n">
-        <v>1.145630015189541e-05</v>
+        <v>1.135542236501698e-05</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2468,10 +2468,10 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0005385768594074822</v>
+        <v>0.0005406932886887431</v>
       </c>
       <c r="C132" t="n">
-        <v>1.239319985064076e-05</v>
+        <v>1.234185199598539e-05</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2484,10 +2484,10 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0005889863724444662</v>
+        <v>0.0005890445500568027</v>
       </c>
       <c r="C133" t="n">
-        <v>1.347648697252575e-05</v>
+        <v>1.338739505196213e-05</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2500,10 +2500,10 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0006188644388032265</v>
+        <v>0.0006185206489784402</v>
       </c>
       <c r="C134" t="n">
-        <v>1.412347761002738e-05</v>
+        <v>1.404863339012705e-05</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2516,10 +2516,10 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0006267568343401412</v>
+        <v>0.0006270044311367266</v>
       </c>
       <c r="C135" t="n">
-        <v>1.446892072255575e-05</v>
+        <v>1.438150157535083e-05</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2532,10 +2532,10 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0006112363730944034</v>
+        <v>0.000613153961282495</v>
       </c>
       <c r="C136" t="n">
-        <v>1.396159959585536e-05</v>
+        <v>1.392799574984348e-05</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0005811057740307053</v>
+        <v>0.000580707299088294</v>
       </c>
       <c r="C137" t="n">
-        <v>1.331496063826212e-05</v>
+        <v>1.32265283044921e-05</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2564,10 +2564,10 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0005007748748343772</v>
+        <v>0.0005033705115763527</v>
       </c>
       <c r="C138" t="n">
-        <v>1.133395448435698e-05</v>
+        <v>1.132644359512925e-05</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2580,10 +2580,10 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0003144646372976646</v>
+        <v>0.0003164558143604999</v>
       </c>
       <c r="C139" t="n">
-        <v>7.189242804113427e-06</v>
+        <v>7.172056630812011e-06</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002649791751364269</v>
+        <v>0.0002677630251418187</v>
       </c>
       <c r="C140" t="n">
-        <v>6.200490582280244e-06</v>
+        <v>6.185453180480181e-06</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2612,10 +2612,10 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0002144504797710429</v>
+        <v>0.0002155632529409937</v>
       </c>
       <c r="C141" t="n">
-        <v>4.893541637998593e-06</v>
+        <v>4.86791743329548e-06</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2628,10 +2628,10 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001661759423754702</v>
+        <v>0.0001671319753832523</v>
       </c>
       <c r="C142" t="n">
-        <v>3.919883920734945e-06</v>
+        <v>3.873212653681014e-06</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2644,10 +2644,10 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0001568822831304025</v>
+        <v>0.0001571250941805248</v>
       </c>
       <c r="C143" t="n">
-        <v>3.801868894528873e-06</v>
+        <v>3.725288722120472e-06</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2660,10 +2660,10 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.000154089005918005</v>
+        <v>0.0001541407941789526</v>
       </c>
       <c r="C144" t="n">
-        <v>4.607453927990762e-06</v>
+        <v>4.4865771114408e-06</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2676,10 +2676,10 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.000157784197857756</v>
+        <v>0.0001568658518621508</v>
       </c>
       <c r="C145" t="n">
-        <v>4.752274524372786e-06</v>
+        <v>4.543541453677932e-06</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2692,10 +2692,10 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0001499738488805022</v>
+        <v>0.0001489716286438366</v>
       </c>
       <c r="C146" t="n">
-        <v>5.002151341238136e-06</v>
+        <v>4.795084550564252e-06</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2708,10 +2708,10 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0001498256101716457</v>
+        <v>0.0001499338579605303</v>
       </c>
       <c r="C147" t="n">
-        <v>5.321681946310979e-06</v>
+        <v>5.049472616158675e-06</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2724,10 +2724,10 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0001509952152315341</v>
+        <v>0.0001499032407626889</v>
       </c>
       <c r="C148" t="n">
-        <v>5.306863430275674e-06</v>
+        <v>4.973405919935472e-06</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2740,10 +2740,10 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0001491250498508947</v>
+        <v>0.0001493300393119167</v>
       </c>
       <c r="C149" t="n">
-        <v>5.432350824344991e-06</v>
+        <v>5.033895721053833e-06</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2756,10 +2756,10 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0001462175512200681</v>
+        <v>0.0001475603180663034</v>
       </c>
       <c r="C150" t="n">
-        <v>5.738430102385013e-06</v>
+        <v>5.320560375964693e-06</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2772,10 +2772,10 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0001425040093390057</v>
+        <v>0.0001418670131657937</v>
       </c>
       <c r="C151" t="n">
-        <v>5.401615737112318e-06</v>
+        <v>5.212050531803583e-06</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2788,10 +2788,10 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001406823238087234</v>
+        <v>0.0001404306757914303</v>
       </c>
       <c r="C152" t="n">
-        <v>5.544527232792926e-06</v>
+        <v>5.28473742433831e-06</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2804,10 +2804,10 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001320482221476352</v>
+        <v>0.0001313583769383718</v>
       </c>
       <c r="C153" t="n">
-        <v>5.14846653167752e-06</v>
+        <v>4.856830744869851e-06</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2820,10 +2820,10 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001329734458245822</v>
+        <v>0.0001318169656176012</v>
       </c>
       <c r="C154" t="n">
-        <v>5.099227317541535e-06</v>
+        <v>4.904530585790469e-06</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0001353948002888573</v>
+        <v>0.0001352193639823857</v>
       </c>
       <c r="C155" t="n">
-        <v>5.54887575016571e-06</v>
+        <v>5.188391395183039e-06</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001339368002657472</v>
+        <v>0.0001319559623898346</v>
       </c>
       <c r="C156" t="n">
-        <v>4.915681537480908e-06</v>
+        <v>4.755689860420273e-06</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2868,10 +2868,10 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001182658875668872</v>
+        <v>0.000117228146841529</v>
       </c>
       <c r="C157" t="n">
-        <v>4.144726541567295e-06</v>
+        <v>3.941806204322277e-06</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2884,10 +2884,10 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001042160423224206</v>
+        <v>0.0001046671978845545</v>
       </c>
       <c r="C158" t="n">
-        <v>3.956320511145999e-06</v>
+        <v>3.764316421406672e-06</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2900,10 +2900,10 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>9.825158301943857e-05</v>
+        <v>9.825701935744759e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>3.223599250655131e-06</v>
+        <v>3.036710215692275e-06</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2916,10 +2916,10 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>9.546037112449829e-05</v>
+        <v>9.674336662998836e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>3.494418008934191e-06</v>
+        <v>3.275455563384593e-06</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -2932,10 +2932,10 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001194426448815921</v>
+        <v>0.0001190077380367537</v>
       </c>
       <c r="C161" t="n">
-        <v>3.457983900539127e-06</v>
+        <v>3.344486464660734e-06</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -2948,10 +2948,10 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0002047661483932359</v>
+        <v>0.000203830137741278</v>
       </c>
       <c r="C162" t="n">
-        <v>5.370324838355433e-06</v>
+        <v>5.217020539073046e-06</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -2964,10 +2964,10 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002474963806390065</v>
+        <v>0.0002477137940438241</v>
       </c>
       <c r="C163" t="n">
-        <v>6.110222311585727e-06</v>
+        <v>5.995029669742298e-06</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -2980,10 +2980,10 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0002641274563646609</v>
+        <v>0.0002634144133338269</v>
       </c>
       <c r="C164" t="n">
-        <v>6.405386883372231e-06</v>
+        <v>6.317805792802405e-06</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -2996,10 +2996,10 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002684212710747991</v>
+        <v>0.0002680713706164564</v>
       </c>
       <c r="C165" t="n">
-        <v>6.581064525512518e-06</v>
+        <v>6.472543330482156e-06</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3012,10 +3012,10 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002761204787305192</v>
+        <v>0.0002758766928861678</v>
       </c>
       <c r="C166" t="n">
-        <v>6.922472789742694e-06</v>
+        <v>6.794979294824286e-06</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3028,10 +3028,10 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002772090502629586</v>
+        <v>0.0002782452667687486</v>
       </c>
       <c r="C167" t="n">
-        <v>6.591368064817439e-06</v>
+        <v>6.528611059379692e-06</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3044,10 +3044,10 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002669659502916083</v>
+        <v>0.0002684538485735503</v>
       </c>
       <c r="C168" t="n">
-        <v>6.295637882943316e-06</v>
+        <v>6.250409510886364e-06</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3060,10 +3060,10 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002467022835756218</v>
+        <v>0.0002483111980156293</v>
       </c>
       <c r="C169" t="n">
-        <v>5.729026924309123e-06</v>
+        <v>5.70556618150882e-06</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3076,10 +3076,10 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001554209260743974</v>
+        <v>0.0001557162738834057</v>
       </c>
       <c r="C170" t="n">
-        <v>3.929687833778485e-06</v>
+        <v>3.86809336571119e-06</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3092,10 +3092,10 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001019634331928368</v>
+        <v>0.0001028215783195501</v>
       </c>
       <c r="C171" t="n">
-        <v>2.530357400426648e-06</v>
+        <v>2.489770751107747e-06</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3108,10 +3108,10 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>9.426329830439298e-05</v>
+        <v>9.431142359462652e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>2.456676952700786e-06</v>
+        <v>2.384412520423852e-06</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3124,10 +3124,10 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001073873220752187</v>
+        <v>0.0001082661995977334</v>
       </c>
       <c r="C173" t="n">
-        <v>3.110806056947593e-06</v>
+        <v>3.042858223108008e-06</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3140,10 +3140,10 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001516502857053022</v>
+        <v>0.0001516831350305327</v>
       </c>
       <c r="C174" t="n">
-        <v>3.853432897729309e-06</v>
+        <v>3.783868460925418e-06</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001683805302720408</v>
+        <v>0.0001680145613367676</v>
       </c>
       <c r="C175" t="n">
-        <v>4.790974686417191e-06</v>
+        <v>4.645045872107112e-06</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3172,10 +3172,10 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002533092705568335</v>
+        <v>0.0002520524601779974</v>
       </c>
       <c r="C176" t="n">
-        <v>7.175042730794451e-06</v>
+        <v>6.937510143262476e-06</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3188,10 +3188,10 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003369341610294364</v>
+        <v>0.000342477662229844</v>
       </c>
       <c r="C177" t="n">
-        <v>9.059239430665772e-06</v>
+        <v>9.029656203712097e-06</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3204,10 +3204,10 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003533614616581649</v>
+        <v>0.0003538830329578334</v>
       </c>
       <c r="C178" t="n">
-        <v>1.022706953298308e-05</v>
+        <v>9.958383535193839e-06</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3220,10 +3220,10 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003382549622441748</v>
+        <v>0.0003386641734991349</v>
       </c>
       <c r="C179" t="n">
-        <v>1.012916581262063e-05</v>
+        <v>9.860499650078846e-06</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3236,10 +3236,10 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0003030048534695375</v>
+        <v>0.0003026458482628351</v>
       </c>
       <c r="C180" t="n">
-        <v>6.438856793711838e-06</v>
+        <v>6.237802981181872e-06</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3252,10 +3252,10 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0002698683195324782</v>
+        <v>0.000268782809495879</v>
       </c>
       <c r="C181" t="n">
-        <v>1.046805117106971e-05</v>
+        <v>1.017140541887876e-05</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3268,10 +3268,10 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0002302895590382131</v>
+        <v>0.0002336324485323076</v>
       </c>
       <c r="C182" t="n">
-        <v>1.07084703545106e-05</v>
+        <v>9.928697025267388e-06</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3284,10 +3284,10 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0002137572461907725</v>
+        <v>0.0002119544828042499</v>
       </c>
       <c r="C183" t="n">
-        <v>9.410822281166624e-06</v>
+        <v>8.734670795037075e-06</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3300,10 +3300,10 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0002134440920054226</v>
+        <v>0.0002092368022336314</v>
       </c>
       <c r="C184" t="n">
-        <v>1.013768654759354e-05</v>
+        <v>9.3329940293889e-06</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3316,10 +3316,10 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0002054999934364453</v>
+        <v>0.0001889340753073761</v>
       </c>
       <c r="C185" t="n">
-        <v>8.077660776433616e-06</v>
+        <v>7.617031010666339e-06</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3332,10 +3332,10 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0002050953231037433</v>
+        <v>0.0002037684894159389</v>
       </c>
       <c r="C186" t="n">
-        <v>8.538994593758959e-06</v>
+        <v>8.208425703151568e-06</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3348,10 +3348,10 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0001982799249158136</v>
+        <v>0.0001988991285482566</v>
       </c>
       <c r="C187" t="n">
-        <v>8.476199767784058e-06</v>
+        <v>8.245832960691634e-06</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3364,10 +3364,10 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0002190489297069628</v>
+        <v>0.000211177620849211</v>
       </c>
       <c r="C188" t="n">
-        <v>7.148547674049021e-06</v>
+        <v>6.94557131059784e-06</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3380,10 +3380,10 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002523645824578704</v>
+        <v>0.0002498956077223901</v>
       </c>
       <c r="C189" t="n">
-        <v>7.786849665831584e-06</v>
+        <v>7.535167085729459e-06</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3396,10 +3396,10 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002844488730540274</v>
+        <v>0.0002831469237244202</v>
       </c>
       <c r="C190" t="n">
-        <v>8.149515539395183e-06</v>
+        <v>7.972995660494604e-06</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3412,10 +3412,10 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0003220944484312922</v>
+        <v>0.0003207091726911753</v>
       </c>
       <c r="C191" t="n">
-        <v>8.465537798306425e-06</v>
+        <v>8.280302284166943e-06</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3428,10 +3428,10 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003720906526126374</v>
+        <v>0.0003712654339096357</v>
       </c>
       <c r="C192" t="n">
-        <v>9.351221688812399e-06</v>
+        <v>9.248536128622962e-06</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3444,10 +3444,10 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004112580306074165</v>
+        <v>0.0004119569037665268</v>
       </c>
       <c r="C193" t="n">
-        <v>7.120333731945223e-06</v>
+        <v>7.05355582895721e-06</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0004029966337780115</v>
+        <v>0.0004019047209879832</v>
       </c>
       <c r="C194" t="n">
-        <v>9.44344847444479e-06</v>
+        <v>9.353087495783214e-06</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3476,10 +3476,10 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003652952674746949</v>
+        <v>0.0003664527008918665</v>
       </c>
       <c r="C195" t="n">
-        <v>8.590142098724413e-06</v>
+        <v>8.535531026317002e-06</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3492,10 +3492,10 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003591896829728681</v>
+        <v>0.0003606941524858958</v>
       </c>
       <c r="C196" t="n">
-        <v>8.323580978215767e-06</v>
+        <v>8.29758611154861e-06</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3508,10 +3508,10 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003201188323448926</v>
+        <v>0.0003223363173354328</v>
       </c>
       <c r="C197" t="n">
-        <v>7.441453452979646e-06</v>
+        <v>7.427165497876581e-06</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3524,10 +3524,10 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003072949705228593</v>
+        <v>0.0003080990772596952</v>
       </c>
       <c r="C198" t="n">
-        <v>7.054765834765143e-06</v>
+        <v>7.015675952945942e-06</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3540,10 +3540,10 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002998980509228071</v>
+        <v>0.0003010910977953598</v>
       </c>
       <c r="C199" t="n">
-        <v>6.860367042063352e-06</v>
+        <v>6.837558768021876e-06</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3556,10 +3556,10 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0003793992020796852</v>
+        <v>0.0003814666178601501</v>
       </c>
       <c r="C200" t="n">
-        <v>9.093537923387279e-06</v>
+        <v>9.003172907240355e-06</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3572,10 +3572,10 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0003335496801437979</v>
+        <v>0.0003343257611315607</v>
       </c>
       <c r="C201" t="n">
-        <v>7.499470429863113e-06</v>
+        <v>7.478802397053032e-06</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003522299971491166</v>
+        <v>0.00035410443322766</v>
       </c>
       <c r="C202" t="n">
-        <v>8.671544505580263e-06</v>
+        <v>8.596667658948248e-06</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3604,10 +3604,10 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003208765120351591</v>
+        <v>0.0003222063974255215</v>
       </c>
       <c r="C203" t="n">
-        <v>8.022123232493205e-06</v>
+        <v>7.89140824220607e-06</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3620,10 +3620,10 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.000301636663995553</v>
+        <v>0.0003029590797844831</v>
       </c>
       <c r="C204" t="n">
-        <v>7.549296275367747e-06</v>
+        <v>7.472662665529003e-06</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3636,10 +3636,10 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002873874190538986</v>
+        <v>0.0002876020468170949</v>
       </c>
       <c r="C205" t="n">
-        <v>7.23606848283689e-06</v>
+        <v>7.117686451993038e-06</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3652,10 +3652,10 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002667895600324003</v>
+        <v>0.0002686667777943547</v>
       </c>
       <c r="C206" t="n">
-        <v>6.909732159280574e-06</v>
+        <v>6.815380944174755e-06</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3668,10 +3668,10 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002499897881403098</v>
+        <v>0.0002511164462364807</v>
       </c>
       <c r="C207" t="n">
-        <v>6.031251258217864e-06</v>
+        <v>5.969427807604525e-06</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3684,10 +3684,10 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002557170886360718</v>
+        <v>0.0002573264810646345</v>
       </c>
       <c r="C208" t="n">
-        <v>6.530519656847521e-06</v>
+        <v>6.369425233105478e-06</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3700,10 +3700,10 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0001333272236168415</v>
+        <v>0.0001340891757181638</v>
       </c>
       <c r="C209" t="n">
-        <v>3.344760437487491e-06</v>
+        <v>3.290294428425824e-06</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3716,10 +3716,10 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>5.558360881978164e-05</v>
+        <v>5.723535437907559e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>1.669826350165828e-06</v>
+        <v>1.611080727874113e-06</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3732,10 +3732,10 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>3.367342250719275e-05</v>
+        <v>3.440185528994186e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>1.094737882152522e-06</v>
+        <v>1.039525804166429e-06</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3748,10 +3748,10 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>4.851270818637564e-05</v>
+        <v>4.934370782826619e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>1.371682989147362e-06</v>
+        <v>1.330973977529891e-06</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>3.024400979006526e-05</v>
+        <v>3.12141021957978e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>9.569242030940974e-07</v>
+        <v>9.179030485234163e-07</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3780,10 +3780,10 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>2.429826654919361e-05</v>
+        <v>2.523865436231106e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>8.107414824484559e-07</v>
+        <v>7.734657480244927e-07</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3796,10 +3796,10 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>2.053020319480466e-05</v>
+        <v>2.125423986105534e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>6.589923072121578e-07</v>
+        <v>6.282430353182063e-07</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3812,10 +3812,10 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>2.081108191268817e-05</v>
+        <v>1.904823586375204e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>7.056616651014882e-07</v>
+        <v>5.477846279549421e-07</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3828,10 +3828,10 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>3.08516422066349e-05</v>
+        <v>3.109136405640318e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>8.933761364847655e-07</v>
+        <v>7.943647209898013e-07</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3844,10 +3844,10 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>5.716787061434692e-05</v>
+        <v>5.678954456462331e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>1.459101358542439e-06</v>
+        <v>1.360727212639119e-06</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3860,10 +3860,10 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>6.413886584933437e-05</v>
+        <v>6.477435363423377e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>1.621758532080767e-06</v>
+        <v>1.583516926544838e-06</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3876,10 +3876,10 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>5.613772964982172e-05</v>
+        <v>5.70734270777312e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>1.38089654299789e-06</v>
+        <v>1.366980483549112e-06</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3892,10 +3892,10 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>5.012694072240722e-05</v>
+        <v>5.114597772010323e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>1.325505922158906e-06</v>
+        <v>1.279777950433702e-06</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
